--- a/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - dynamoth.xlsx
+++ b/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - dynamoth.xlsx
@@ -14,7 +14,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+  <si>
+    <t xml:space="preserve"><![CDATA[Var1]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
   <si>
     <t xml:space="preserve"><![CDATA[DynaMoth_Chart-1_Fixed]]></t>
   </si>
@@ -794,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC525"/>
+  <dimension ref="A1:AC526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,744 +922,744 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>2.830000</v>
-      </c>
-      <c r="C1" t="n" s="0">
-        <v>79.980000</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>18.670000</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>6.580000</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>9.830000</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>2.710000</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>9.290000</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>28.500000</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>46.750000</v>
-      </c>
-      <c r="K1" t="n" s="0">
-        <v>0.045000</v>
-      </c>
-      <c r="L1" t="n" s="0">
-        <v>0.023000</v>
-      </c>
-      <c r="M1" t="n" s="0">
-        <v>0.790000</v>
-      </c>
-      <c r="N1" t="n" s="0">
-        <v>0.044000</v>
-      </c>
-      <c r="O1" t="n" s="0">
-        <v/>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
       </c>
       <c r="P1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="n" s="0">
-        <v>2.850000</v>
-      </c>
-      <c r="R1" t="n" s="0">
-        <v>79.970000</v>
-      </c>
-      <c r="S1" t="n" s="0">
-        <v>18.670000</v>
-      </c>
-      <c r="T1" t="n" s="0">
-        <v>6.590000</v>
-      </c>
-      <c r="U1" t="n" s="0">
-        <v>9.850000</v>
-      </c>
-      <c r="V1" t="n" s="0">
-        <v>2.710000</v>
-      </c>
-      <c r="W1" t="n" s="0">
-        <v>9.300000</v>
-      </c>
-      <c r="X1" t="n" s="0">
-        <v>28.520000</v>
-      </c>
-      <c r="Y1" t="n" s="0">
-        <v>46.850000</v>
-      </c>
-      <c r="Z1" t="n" s="0">
-        <v>0.045000</v>
-      </c>
-      <c r="AA1" t="n" s="0">
-        <v>0.023000</v>
-      </c>
-      <c r="AB1" t="n" s="0">
-        <v>0.790000</v>
-      </c>
-      <c r="AC1" t="n" s="0">
-        <v>0.044000</v>
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>7.000000</v>
+        <v>2.830000</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>62.100000</v>
+        <v>79.980000</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>67.800000</v>
+        <v>18.670000</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>12.300000</v>
+        <v>6.580000</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>30.100000</v>
+        <v>9.830000</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>3.800000</v>
+        <v>2.710000</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>16.100000</v>
+        <v>9.290000</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>97.900000</v>
+        <v>28.500000</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>109.000000</v>
+        <v>46.750000</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.045000</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.023000</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.790000</v>
       </c>
       <c r="N2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.044000</v>
       </c>
       <c r="O2" t="n" s="0">
         <v/>
       </c>
       <c r="P2" t="s" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>7.100000</v>
+        <v>2.850000</v>
       </c>
       <c r="R2" t="n" s="0">
-        <v>62.000000</v>
+        <v>79.970000</v>
       </c>
       <c r="S2" t="n" s="0">
-        <v>67.700000</v>
+        <v>18.670000</v>
       </c>
       <c r="T2" t="n" s="0">
-        <v>12.400000</v>
+        <v>6.590000</v>
       </c>
       <c r="U2" t="n" s="0">
-        <v>30.100000</v>
+        <v>9.850000</v>
       </c>
       <c r="V2" t="n" s="0">
-        <v>3.800000</v>
+        <v>2.710000</v>
       </c>
       <c r="W2" t="n" s="0">
-        <v>16.200000</v>
+        <v>9.300000</v>
       </c>
       <c r="X2" t="n" s="0">
-        <v>97.800000</v>
+        <v>28.520000</v>
       </c>
       <c r="Y2" t="n" s="0">
-        <v>109.750000</v>
+        <v>46.850000</v>
       </c>
       <c r="Z2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.045000</v>
       </c>
       <c r="AA2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.023000</v>
       </c>
       <c r="AB2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.790000</v>
       </c>
       <c r="AC2" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.044000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.910000</v>
+        <v>7.000000</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>75.360000</v>
+        <v>62.100000</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>43.180000</v>
+        <v>67.800000</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>10.730000</v>
+        <v>12.300000</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>25.550000</v>
+        <v>30.100000</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>4.270000</v>
+        <v>3.800000</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>15.000000</v>
+        <v>16.100000</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>68.730000</v>
+        <v>97.900000</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>104.340000</v>
+        <v>109.000000</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="M3" t="n" s="0">
-        <v>2.310000</v>
+        <v>0.000000</v>
       </c>
       <c r="N3" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.000000</v>
       </c>
       <c r="O3" t="n" s="0">
         <v/>
       </c>
       <c r="P3" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>4.640000</v>
+        <v>7.100000</v>
       </c>
       <c r="R3" t="n" s="0">
-        <v>75.360000</v>
+        <v>62.000000</v>
       </c>
       <c r="S3" t="n" s="0">
-        <v>42.090000</v>
+        <v>67.700000</v>
       </c>
       <c r="T3" t="n" s="0">
-        <v>10.640000</v>
+        <v>12.400000</v>
       </c>
       <c r="U3" t="n" s="0">
-        <v>24.910000</v>
+        <v>30.100000</v>
       </c>
       <c r="V3" t="n" s="0">
-        <v>4.090000</v>
+        <v>3.800000</v>
       </c>
       <c r="W3" t="n" s="0">
-        <v>14.730000</v>
+        <v>16.200000</v>
       </c>
       <c r="X3" t="n" s="0">
-        <v>67.000000</v>
+        <v>97.800000</v>
       </c>
       <c r="Y3" t="n" s="0">
-        <v>101.410000</v>
+        <v>109.750000</v>
       </c>
       <c r="Z3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA3" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB3" t="n" s="0">
-        <v>2.310000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC3" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.910000</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>83.680000</v>
+        <v>75.360000</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.380000</v>
+        <v>43.180000</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>4.290000</v>
+        <v>10.730000</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>5.710000</v>
+        <v>25.550000</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>2.590000</v>
+        <v>4.270000</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>6.880000</v>
+        <v>15.000000</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>15.090000</v>
+        <v>68.730000</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>28.850000</v>
+        <v>104.340000</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="L4" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="M4" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="N4" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
       <c r="O4" t="n" s="0">
         <v/>
       </c>
       <c r="P4" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.640000</v>
       </c>
       <c r="R4" t="n" s="0">
-        <v>83.710000</v>
+        <v>75.360000</v>
       </c>
       <c r="S4" t="n" s="0">
-        <v>9.290000</v>
+        <v>42.090000</v>
       </c>
       <c r="T4" t="n" s="0">
-        <v>4.320000</v>
+        <v>10.640000</v>
       </c>
       <c r="U4" t="n" s="0">
-        <v>5.740000</v>
+        <v>24.910000</v>
       </c>
       <c r="V4" t="n" s="0">
-        <v>2.680000</v>
+        <v>4.090000</v>
       </c>
       <c r="W4" t="n" s="0">
-        <v>7.000000</v>
+        <v>14.730000</v>
       </c>
       <c r="X4" t="n" s="0">
-        <v>15.030000</v>
+        <v>67.000000</v>
       </c>
       <c r="Y4" t="n" s="0">
-        <v>29.460000</v>
+        <v>101.410000</v>
       </c>
       <c r="Z4" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="AA4" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="AB4" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="AC4" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>3.760000</v>
+        <v>2.240000</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>76.240000</v>
+        <v>83.680000</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>13.120000</v>
+        <v>9.380000</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>6.760000</v>
+        <v>4.290000</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>9.280000</v>
+        <v>5.710000</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>3.480000</v>
+        <v>2.590000</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>10.240000</v>
+        <v>6.880000</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>22.400000</v>
+        <v>15.090000</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>50.170000</v>
+        <v>28.850000</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.059000</v>
       </c>
       <c r="L5" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.015000</v>
       </c>
       <c r="M5" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.830000</v>
       </c>
       <c r="N5" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.046000</v>
       </c>
       <c r="O5" t="n" s="0">
         <v/>
       </c>
       <c r="P5" t="s" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="n" s="0">
-        <v>3.760000</v>
+        <v>2.240000</v>
       </c>
       <c r="R5" t="n" s="0">
-        <v>76.320000</v>
+        <v>83.710000</v>
       </c>
       <c r="S5" t="n" s="0">
-        <v>12.840000</v>
+        <v>9.290000</v>
       </c>
       <c r="T5" t="n" s="0">
-        <v>6.680000</v>
+        <v>4.320000</v>
       </c>
       <c r="U5" t="n" s="0">
-        <v>9.280000</v>
+        <v>5.740000</v>
       </c>
       <c r="V5" t="n" s="0">
-        <v>3.480000</v>
+        <v>2.680000</v>
       </c>
       <c r="W5" t="n" s="0">
-        <v>10.160000</v>
+        <v>7.000000</v>
       </c>
       <c r="X5" t="n" s="0">
-        <v>22.120000</v>
+        <v>15.030000</v>
       </c>
       <c r="Y5" t="n" s="0">
-        <v>49.440000</v>
+        <v>29.460000</v>
       </c>
       <c r="Z5" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.059000</v>
       </c>
       <c r="AA5" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.015000</v>
       </c>
       <c r="AB5" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.830000</v>
       </c>
       <c r="AC5" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.046000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>82.860000</v>
+        <v>76.240000</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>8.920000</v>
+        <v>13.120000</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>5.650000</v>
+        <v>6.760000</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>5.760000</v>
+        <v>9.280000</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>2.030000</v>
+        <v>3.480000</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>7.680000</v>
+        <v>10.240000</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>14.680000</v>
+        <v>22.400000</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>29.950000</v>
+        <v>50.170000</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="L6" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="M6" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="N6" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
       <c r="O6" t="n" s="0">
         <v/>
       </c>
       <c r="P6" t="s" s="0">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="R6" t="n" s="0">
-        <v>82.890000</v>
+        <v>76.320000</v>
       </c>
       <c r="S6" t="n" s="0">
-        <v>8.890000</v>
+        <v>12.840000</v>
       </c>
       <c r="T6" t="n" s="0">
-        <v>5.620000</v>
+        <v>6.680000</v>
       </c>
       <c r="U6" t="n" s="0">
-        <v>5.730000</v>
+        <v>9.280000</v>
       </c>
       <c r="V6" t="n" s="0">
-        <v>2.030000</v>
+        <v>3.480000</v>
       </c>
       <c r="W6" t="n" s="0">
-        <v>7.650000</v>
+        <v>10.160000</v>
       </c>
       <c r="X6" t="n" s="0">
-        <v>14.620000</v>
+        <v>22.120000</v>
       </c>
       <c r="Y6" t="n" s="0">
-        <v>29.740000</v>
+        <v>49.440000</v>
       </c>
       <c r="Z6" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="AA6" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="AB6" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="AC6" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.190000</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>80.250000</v>
+        <v>82.860000</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>2.250000</v>
+        <v>8.920000</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>3.500000</v>
+        <v>5.650000</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>5.750000</v>
+        <v>5.760000</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>3.750000</v>
+        <v>2.030000</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>7.250000</v>
+        <v>7.680000</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>8.000000</v>
+        <v>14.680000</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>23.100000</v>
+        <v>29.950000</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>6.500000</v>
+        <v>0.270000</v>
       </c>
       <c r="L7" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.110000</v>
       </c>
       <c r="M7" t="n" s="0">
-        <v>179.440000</v>
+        <v>10.430000</v>
       </c>
       <c r="N7" t="n" s="0">
-        <v>9.970000</v>
+        <v>0.580000</v>
       </c>
       <c r="O7" t="n" s="0">
         <v/>
       </c>
       <c r="P7" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.190000</v>
       </c>
       <c r="R7" t="n" s="0">
-        <v>80.170000</v>
+        <v>82.890000</v>
       </c>
       <c r="S7" t="n" s="0">
-        <v>2.250000</v>
+        <v>8.890000</v>
       </c>
       <c r="T7" t="n" s="0">
-        <v>3.580000</v>
+        <v>5.620000</v>
       </c>
       <c r="U7" t="n" s="0">
-        <v>5.750000</v>
+        <v>5.730000</v>
       </c>
       <c r="V7" t="n" s="0">
-        <v>3.750000</v>
+        <v>2.030000</v>
       </c>
       <c r="W7" t="n" s="0">
-        <v>7.330000</v>
+        <v>7.650000</v>
       </c>
       <c r="X7" t="n" s="0">
-        <v>8.000000</v>
+        <v>14.620000</v>
       </c>
       <c r="Y7" t="n" s="0">
-        <v>23.390000</v>
+        <v>29.740000</v>
       </c>
       <c r="Z7" t="n" s="0">
-        <v>6.920000</v>
+        <v>0.270000</v>
       </c>
       <c r="AA7" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.110000</v>
       </c>
       <c r="AB7" t="n" s="0">
-        <v>196.730000</v>
+        <v>10.430000</v>
       </c>
       <c r="AC7" t="n" s="0">
-        <v>10.930000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>5.130000</v>
+        <v>2.170000</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>73.420000</v>
+        <v>80.250000</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>17.920000</v>
+        <v>2.250000</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>6.770000</v>
+        <v>3.500000</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>11.960000</v>
+        <v>5.750000</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.250000</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>29.890000</v>
+        <v>8.000000</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>58.170000</v>
+        <v>23.100000</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.500000</v>
       </c>
       <c r="L8" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="M8" t="n" s="0">
-        <v>0.000000</v>
+        <v>179.440000</v>
       </c>
       <c r="N8" t="n" s="0">
-        <v>0.000000</v>
+        <v>9.970000</v>
       </c>
       <c r="O8" t="n" s="0">
         <v/>
       </c>
       <c r="P8" t="s" s="0">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="n" s="0">
-        <v>5.060000</v>
+        <v>2.170000</v>
       </c>
       <c r="R8" t="n" s="0">
-        <v>73.430000</v>
+        <v>80.170000</v>
       </c>
       <c r="S8" t="n" s="0">
-        <v>17.790000</v>
+        <v>2.250000</v>
       </c>
       <c r="T8" t="n" s="0">
-        <v>6.750000</v>
+        <v>3.580000</v>
       </c>
       <c r="U8" t="n" s="0">
-        <v>11.700000</v>
+        <v>5.750000</v>
       </c>
       <c r="V8" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="W8" t="n" s="0">
-        <v>11.550000</v>
+        <v>7.330000</v>
       </c>
       <c r="X8" t="n" s="0">
-        <v>29.490000</v>
+        <v>8.000000</v>
       </c>
       <c r="Y8" t="n" s="0">
-        <v>57.930000</v>
+        <v>23.390000</v>
       </c>
       <c r="Z8" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.920000</v>
       </c>
       <c r="AA8" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="AB8" t="n" s="0">
-        <v>0.000000</v>
+        <v>196.730000</v>
       </c>
       <c r="AC8" t="n" s="0">
-        <v>0.000000</v>
+        <v>10.930000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.450000</v>
+        <v>5.130000</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>80.000000</v>
+        <v>73.420000</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>26.350000</v>
+        <v>17.920000</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>7.600000</v>
+        <v>6.770000</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>17.450000</v>
+        <v>11.960000</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>3.050000</v>
+        <v>4.790000</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>10.650000</v>
+        <v>11.570000</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>43.800000</v>
+        <v>29.890000</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>63.760000</v>
+        <v>58.170000</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.000000</v>
@@ -1590,34 +1677,34 @@
         <v/>
       </c>
       <c r="P9" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="n" s="0">
-        <v>4.380000</v>
+        <v>5.060000</v>
       </c>
       <c r="R9" t="n" s="0">
-        <v>79.240000</v>
+        <v>73.430000</v>
       </c>
       <c r="S9" t="n" s="0">
-        <v>27.290000</v>
+        <v>17.790000</v>
       </c>
       <c r="T9" t="n" s="0">
-        <v>7.810000</v>
+        <v>6.750000</v>
       </c>
       <c r="U9" t="n" s="0">
-        <v>17.570000</v>
+        <v>11.700000</v>
       </c>
       <c r="V9" t="n" s="0">
-        <v>3.140000</v>
+        <v>4.790000</v>
       </c>
       <c r="W9" t="n" s="0">
-        <v>10.950000</v>
+        <v>11.550000</v>
       </c>
       <c r="X9" t="n" s="0">
-        <v>44.860000</v>
+        <v>29.490000</v>
       </c>
       <c r="Y9" t="n" s="0">
-        <v>65.270000</v>
+        <v>57.930000</v>
       </c>
       <c r="Z9" t="n" s="0">
         <v>0.000000</v>
@@ -1634,897 +1721,897 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>2.040000</v>
+        <v>4.450000</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>83.210000</v>
+        <v>80.000000</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>10.790000</v>
+        <v>26.350000</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>4.930000</v>
+        <v>7.600000</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>6.180000</v>
+        <v>17.450000</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>2.860000</v>
+        <v>3.050000</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>7.790000</v>
+        <v>10.650000</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>16.960000</v>
+        <v>43.800000</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>34.990000</v>
+        <v>63.760000</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="L10" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="M10" t="n" s="0">
-        <v>1.130000</v>
+        <v>0.000000</v>
       </c>
       <c r="N10" t="n" s="0">
-        <v>0.063000</v>
+        <v>0.000000</v>
       </c>
       <c r="O10" t="n" s="0">
         <v/>
       </c>
       <c r="P10" t="s" s="0">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="n" s="0">
-        <v>1.960000</v>
+        <v>4.380000</v>
       </c>
       <c r="R10" t="n" s="0">
-        <v>83.250000</v>
+        <v>79.240000</v>
       </c>
       <c r="S10" t="n" s="0">
-        <v>10.570000</v>
+        <v>27.290000</v>
       </c>
       <c r="T10" t="n" s="0">
-        <v>4.930000</v>
+        <v>7.810000</v>
       </c>
       <c r="U10" t="n" s="0">
-        <v>5.860000</v>
+        <v>17.570000</v>
       </c>
       <c r="V10" t="n" s="0">
-        <v>2.680000</v>
+        <v>3.140000</v>
       </c>
       <c r="W10" t="n" s="0">
-        <v>7.610000</v>
+        <v>10.950000</v>
       </c>
       <c r="X10" t="n" s="0">
-        <v>16.430000</v>
+        <v>44.860000</v>
       </c>
       <c r="Y10" t="n" s="0">
-        <v>33.580000</v>
+        <v>65.270000</v>
       </c>
       <c r="Z10" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA10" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB10" t="n" s="0">
-        <v>1.130000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC10" t="n" s="0">
-        <v>0.063000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>1.410000</v>
+        <v>2.040000</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>86.360000</v>
+        <v>83.210000</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>4.550000</v>
+        <v>10.790000</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>3.180000</v>
+        <v>4.930000</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>5.090000</v>
+        <v>6.180000</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>3.180000</v>
+        <v>2.860000</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>6.360000</v>
+        <v>7.790000</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>9.640000</v>
+        <v>16.960000</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>21.740000</v>
+        <v>34.990000</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>2.140000</v>
+        <v>0.036000</v>
       </c>
       <c r="L11" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.036000</v>
       </c>
       <c r="M11" t="n" s="0">
-        <v>50.220000</v>
+        <v>1.130000</v>
       </c>
       <c r="N11" t="n" s="0">
-        <v>2.790000</v>
+        <v>0.063000</v>
       </c>
       <c r="O11" t="n" s="0">
         <v/>
       </c>
       <c r="P11" t="s" s="0">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="n" s="0">
-        <v>1.500000</v>
+        <v>1.960000</v>
       </c>
       <c r="R11" t="n" s="0">
-        <v>86.360000</v>
+        <v>83.250000</v>
       </c>
       <c r="S11" t="n" s="0">
-        <v>4.680000</v>
+        <v>10.570000</v>
       </c>
       <c r="T11" t="n" s="0">
-        <v>3.180000</v>
+        <v>4.930000</v>
       </c>
       <c r="U11" t="n" s="0">
-        <v>5.270000</v>
+        <v>5.860000</v>
       </c>
       <c r="V11" t="n" s="0">
-        <v>3.270000</v>
+        <v>2.680000</v>
       </c>
       <c r="W11" t="n" s="0">
-        <v>6.450000</v>
+        <v>7.610000</v>
       </c>
       <c r="X11" t="n" s="0">
-        <v>9.950000</v>
+        <v>16.430000</v>
       </c>
       <c r="Y11" t="n" s="0">
-        <v>22.690000</v>
+        <v>33.580000</v>
       </c>
       <c r="Z11" t="n" s="0">
-        <v>2.000000</v>
+        <v>0.036000</v>
       </c>
       <c r="AA11" t="n" s="0">
-        <v>0.170000</v>
+        <v>0.036000</v>
       </c>
       <c r="AB11" t="n" s="0">
-        <v>48.050000</v>
+        <v>1.130000</v>
       </c>
       <c r="AC11" t="n" s="0">
-        <v>2.670000</v>
+        <v>0.063000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>3.500000</v>
+        <v>1.410000</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>75.430000</v>
+        <v>86.360000</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>20.940000</v>
+        <v>4.550000</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>8.540000</v>
+        <v>3.180000</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>16.850000</v>
+        <v>5.090000</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>5.260000</v>
+        <v>3.180000</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>13.800000</v>
+        <v>6.360000</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>37.800000</v>
+        <v>9.640000</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>75.060000</v>
+        <v>21.740000</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>0.260000</v>
+        <v>2.140000</v>
       </c>
       <c r="L12" t="n" s="0">
-        <v>0.039000</v>
+        <v>0.140000</v>
       </c>
       <c r="M12" t="n" s="0">
-        <v>5.570000</v>
+        <v>50.220000</v>
       </c>
       <c r="N12" t="n" s="0">
-        <v>0.310000</v>
+        <v>2.790000</v>
       </c>
       <c r="O12" t="n" s="0">
         <v/>
       </c>
       <c r="P12" t="s" s="0">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="n" s="0">
-        <v>3.460000</v>
+        <v>1.500000</v>
       </c>
       <c r="R12" t="n" s="0">
-        <v>75.540000</v>
+        <v>86.360000</v>
       </c>
       <c r="S12" t="n" s="0">
-        <v>20.940000</v>
+        <v>4.680000</v>
       </c>
       <c r="T12" t="n" s="0">
-        <v>8.520000</v>
+        <v>3.180000</v>
       </c>
       <c r="U12" t="n" s="0">
-        <v>16.700000</v>
+        <v>5.270000</v>
       </c>
       <c r="V12" t="n" s="0">
-        <v>5.200000</v>
+        <v>3.270000</v>
       </c>
       <c r="W12" t="n" s="0">
-        <v>13.720000</v>
+        <v>6.450000</v>
       </c>
       <c r="X12" t="n" s="0">
-        <v>37.650000</v>
+        <v>9.950000</v>
       </c>
       <c r="Y12" t="n" s="0">
-        <v>74.730000</v>
+        <v>22.690000</v>
       </c>
       <c r="Z12" t="n" s="0">
-        <v>0.093000</v>
+        <v>2.000000</v>
       </c>
       <c r="AA12" t="n" s="0">
-        <v>0.037000</v>
+        <v>0.170000</v>
       </c>
       <c r="AB12" t="n" s="0">
-        <v>2.300000</v>
+        <v>48.050000</v>
       </c>
       <c r="AC12" t="n" s="0">
-        <v>0.130000</v>
+        <v>2.670000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.710000</v>
+        <v>3.500000</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>73.000000</v>
+        <v>75.430000</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>20.000000</v>
+        <v>20.940000</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>7.570000</v>
+        <v>8.540000</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>17.140000</v>
+        <v>16.850000</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>5.430000</v>
+        <v>5.260000</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>13.000000</v>
+        <v>13.800000</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>37.140000</v>
+        <v>37.800000</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>70.010000</v>
+        <v>75.060000</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.260000</v>
       </c>
       <c r="L13" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.039000</v>
       </c>
       <c r="M13" t="n" s="0">
-        <v>32.860000</v>
+        <v>5.570000</v>
       </c>
       <c r="N13" t="n" s="0">
-        <v>1.830000</v>
+        <v>0.310000</v>
       </c>
       <c r="O13" t="n" s="0">
         <v/>
       </c>
       <c r="P13" t="s" s="0">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="n" s="0">
-        <v>4.570000</v>
+        <v>3.460000</v>
       </c>
       <c r="R13" t="n" s="0">
-        <v>73.000000</v>
+        <v>75.540000</v>
       </c>
       <c r="S13" t="n" s="0">
-        <v>19.710000</v>
+        <v>20.940000</v>
       </c>
       <c r="T13" t="n" s="0">
-        <v>7.570000</v>
+        <v>8.520000</v>
       </c>
       <c r="U13" t="n" s="0">
-        <v>16.140000</v>
+        <v>16.700000</v>
       </c>
       <c r="V13" t="n" s="0">
-        <v>5.430000</v>
+        <v>5.200000</v>
       </c>
       <c r="W13" t="n" s="0">
-        <v>13.000000</v>
+        <v>13.720000</v>
       </c>
       <c r="X13" t="n" s="0">
-        <v>35.860000</v>
+        <v>37.650000</v>
       </c>
       <c r="Y13" t="n" s="0">
-        <v>69.570000</v>
+        <v>74.730000</v>
       </c>
       <c r="Z13" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.093000</v>
       </c>
       <c r="AA13" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.037000</v>
       </c>
       <c r="AB13" t="n" s="0">
-        <v>32.860000</v>
+        <v>2.300000</v>
       </c>
       <c r="AC13" t="n" s="0">
-        <v>1.830000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>2.950000</v>
+        <v>4.710000</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>85.100000</v>
+        <v>73.000000</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>13.750000</v>
+        <v>20.000000</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>5.550000</v>
+        <v>7.570000</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>12.100000</v>
+        <v>17.140000</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>3.250000</v>
+        <v>5.430000</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>8.800000</v>
+        <v>13.000000</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>25.850000</v>
+        <v>37.140000</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>46.450000</v>
+        <v>70.010000</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>0.450000</v>
+        <v>1.290000</v>
       </c>
       <c r="L14" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.071000</v>
       </c>
       <c r="M14" t="n" s="0">
-        <v>14.920000</v>
+        <v>32.860000</v>
       </c>
       <c r="N14" t="n" s="0">
-        <v>0.830000</v>
+        <v>1.830000</v>
       </c>
       <c r="O14" t="n" s="0">
         <v/>
       </c>
       <c r="P14" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="n" s="0">
-        <v>2.900000</v>
+        <v>4.570000</v>
       </c>
       <c r="R14" t="n" s="0">
-        <v>85.150000</v>
+        <v>73.000000</v>
       </c>
       <c r="S14" t="n" s="0">
-        <v>13.650000</v>
+        <v>19.710000</v>
       </c>
       <c r="T14" t="n" s="0">
-        <v>5.550000</v>
+        <v>7.570000</v>
       </c>
       <c r="U14" t="n" s="0">
-        <v>11.850000</v>
+        <v>16.140000</v>
       </c>
       <c r="V14" t="n" s="0">
-        <v>3.150000</v>
+        <v>5.430000</v>
       </c>
       <c r="W14" t="n" s="0">
-        <v>8.700000</v>
+        <v>13.000000</v>
       </c>
       <c r="X14" t="n" s="0">
-        <v>25.500000</v>
+        <v>35.860000</v>
       </c>
       <c r="Y14" t="n" s="0">
-        <v>45.640000</v>
+        <v>69.570000</v>
       </c>
       <c r="Z14" t="n" s="0">
-        <v>0.450000</v>
+        <v>1.290000</v>
       </c>
       <c r="AA14" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.071000</v>
       </c>
       <c r="AB14" t="n" s="0">
-        <v>14.920000</v>
+        <v>32.860000</v>
       </c>
       <c r="AC14" t="n" s="0">
-        <v>0.830000</v>
+        <v>1.830000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>2.100000</v>
+        <v>2.950000</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>82.620000</v>
+        <v>85.100000</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>8.100000</v>
+        <v>13.750000</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>4.480000</v>
+        <v>5.550000</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>5.900000</v>
+        <v>12.100000</v>
       </c>
       <c r="G15" t="n" s="0">
+        <v>3.250000</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>8.800000</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>25.850000</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>46.450000</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.450000</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.022000</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>14.920000</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.830000</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P15" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="n" s="0">
         <v>2.900000</v>
       </c>
-      <c r="H15" t="n" s="0">
-        <v>7.380000</v>
-      </c>
-      <c r="I15" t="n" s="0">
-        <v>14.000000</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>30.510000</v>
-      </c>
-      <c r="K15" t="n" s="0">
-        <v>1.190000</v>
-      </c>
-      <c r="L15" t="n" s="0">
-        <v>0.170000</v>
-      </c>
-      <c r="M15" t="n" s="0">
-        <v>30.990000</v>
-      </c>
-      <c r="N15" t="n" s="0">
-        <v>1.720000</v>
-      </c>
-      <c r="O15" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="Q15" t="n" s="0">
-        <v>2.140000</v>
-      </c>
       <c r="R15" t="n" s="0">
-        <v>82.570000</v>
+        <v>85.150000</v>
       </c>
       <c r="S15" t="n" s="0">
-        <v>8.140000</v>
+        <v>13.650000</v>
       </c>
       <c r="T15" t="n" s="0">
-        <v>4.520000</v>
+        <v>5.550000</v>
       </c>
       <c r="U15" t="n" s="0">
-        <v>5.950000</v>
+        <v>11.850000</v>
       </c>
       <c r="V15" t="n" s="0">
-        <v>2.950000</v>
+        <v>3.150000</v>
       </c>
       <c r="W15" t="n" s="0">
-        <v>7.480000</v>
+        <v>8.700000</v>
       </c>
       <c r="X15" t="n" s="0">
-        <v>14.100000</v>
+        <v>25.500000</v>
       </c>
       <c r="Y15" t="n" s="0">
-        <v>31.040000</v>
+        <v>45.640000</v>
       </c>
       <c r="Z15" t="n" s="0">
-        <v>1.190000</v>
+        <v>0.450000</v>
       </c>
       <c r="AA15" t="n" s="0">
-        <v>0.170000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB15" t="n" s="0">
-        <v>30.990000</v>
+        <v>14.920000</v>
       </c>
       <c r="AC15" t="n" s="0">
-        <v>1.720000</v>
+        <v>0.830000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>2.060000</v>
+        <v>2.100000</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>80.300000</v>
+        <v>82.620000</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>10.130000</v>
+        <v>8.100000</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.480000</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>7.160000</v>
+        <v>5.900000</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>3.040000</v>
+        <v>2.900000</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>6.800000</v>
+        <v>7.380000</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>17.290000</v>
+        <v>14.000000</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>29.440000</v>
+        <v>30.510000</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.190000</v>
       </c>
       <c r="L16" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.170000</v>
       </c>
       <c r="M16" t="n" s="0">
-        <v>0.087000</v>
+        <v>30.990000</v>
       </c>
       <c r="N16" t="n" s="0">
-        <v>0.004800</v>
+        <v>1.720000</v>
       </c>
       <c r="O16" t="n" s="0">
         <v/>
       </c>
       <c r="P16" t="s" s="0">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="n" s="0">
-        <v>2.070000</v>
+        <v>2.140000</v>
       </c>
       <c r="R16" t="n" s="0">
-        <v>80.260000</v>
+        <v>82.570000</v>
       </c>
       <c r="S16" t="n" s="0">
-        <v>10.190000</v>
+        <v>8.140000</v>
       </c>
       <c r="T16" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.520000</v>
       </c>
       <c r="U16" t="n" s="0">
-        <v>7.190000</v>
+        <v>5.950000</v>
       </c>
       <c r="V16" t="n" s="0">
-        <v>3.060000</v>
+        <v>2.950000</v>
       </c>
       <c r="W16" t="n" s="0">
-        <v>6.810000</v>
+        <v>7.480000</v>
       </c>
       <c r="X16" t="n" s="0">
-        <v>17.380000</v>
+        <v>14.100000</v>
       </c>
       <c r="Y16" t="n" s="0">
-        <v>29.540000</v>
+        <v>31.040000</v>
       </c>
       <c r="Z16" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.190000</v>
       </c>
       <c r="AA16" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.170000</v>
       </c>
       <c r="AB16" t="n" s="0">
-        <v>0.087000</v>
+        <v>30.990000</v>
       </c>
       <c r="AC16" t="n" s="0">
-        <v>0.004800</v>
+        <v>1.720000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.060000</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>78.860000</v>
+        <v>80.300000</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>16.000000</v>
+        <v>10.130000</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.750000</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.160000</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.040000</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.800000</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>27.570000</v>
+        <v>17.290000</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>48.540000</v>
+        <v>29.440000</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="L17" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="M17" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="N17" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
       <c r="O17" t="n" s="0">
         <v/>
       </c>
       <c r="P17" t="s" s="0">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="Q17" t="n" s="0">
-        <v>5.290000</v>
+        <v>2.070000</v>
       </c>
       <c r="R17" t="n" s="0">
-        <v>78.710000</v>
+        <v>80.260000</v>
       </c>
       <c r="S17" t="n" s="0">
-        <v>17.710000</v>
+        <v>10.190000</v>
       </c>
       <c r="T17" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.750000</v>
       </c>
       <c r="U17" t="n" s="0">
-        <v>13.290000</v>
+        <v>7.190000</v>
       </c>
       <c r="V17" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.060000</v>
       </c>
       <c r="W17" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.810000</v>
       </c>
       <c r="X17" t="n" s="0">
-        <v>31.000000</v>
+        <v>17.380000</v>
       </c>
       <c r="Y17" t="n" s="0">
-        <v>49.530000</v>
+        <v>29.540000</v>
       </c>
       <c r="Z17" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="AA17" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="AB17" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="AC17" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>2.710000</v>
+        <v>5.000000</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>77.860000</v>
+        <v>78.860000</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>10.570000</v>
+        <v>16.000000</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>5.000000</v>
+        <v>6.290000</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>8.570000</v>
+        <v>11.570000</v>
       </c>
       <c r="G18" t="n" s="0">
+        <v>3.570000</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>9.860000</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>27.570000</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>48.540000</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>0.430000</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>0.210000</v>
+      </c>
+      <c r="M18" t="n" s="0">
+        <v>10.380000</v>
+      </c>
+      <c r="N18" t="n" s="0">
+        <v>0.580000</v>
+      </c>
+      <c r="O18" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P18" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="Q18" t="n" s="0">
         <v>5.290000</v>
       </c>
-      <c r="H18" t="n" s="0">
-        <v>10.290000</v>
-      </c>
-      <c r="I18" t="n" s="0">
-        <v>19.140000</v>
-      </c>
-      <c r="J18" t="n" s="0">
-        <v>45.080000</v>
-      </c>
-      <c r="K18" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="L18" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="M18" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="N18" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="O18" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P18" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="Q18" t="n" s="0">
-        <v>2.860000</v>
-      </c>
       <c r="R18" t="n" s="0">
-        <v>77.430000</v>
+        <v>78.710000</v>
       </c>
       <c r="S18" t="n" s="0">
-        <v>10.710000</v>
+        <v>17.710000</v>
       </c>
       <c r="T18" t="n" s="0">
-        <v>5.140000</v>
+        <v>6.290000</v>
       </c>
       <c r="U18" t="n" s="0">
-        <v>9.140000</v>
+        <v>13.290000</v>
       </c>
       <c r="V18" t="n" s="0">
-        <v>5.290000</v>
+        <v>3.570000</v>
       </c>
       <c r="W18" t="n" s="0">
-        <v>10.430000</v>
+        <v>9.860000</v>
       </c>
       <c r="X18" t="n" s="0">
-        <v>19.860000</v>
+        <v>31.000000</v>
       </c>
       <c r="Y18" t="n" s="0">
-        <v>46.270000</v>
+        <v>49.530000</v>
       </c>
       <c r="Z18" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.430000</v>
       </c>
       <c r="AA18" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
       <c r="AB18" t="n" s="0">
-        <v>0.000000</v>
+        <v>10.380000</v>
       </c>
       <c r="AC18" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>6.000000</v>
+        <v>2.710000</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>65.240000</v>
+        <v>77.860000</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>51.360000</v>
+        <v>10.570000</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>11.980000</v>
+        <v>5.000000</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>44.050000</v>
+        <v>8.570000</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>8.380000</v>
+        <v>5.290000</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>20.360000</v>
+        <v>10.290000</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>95.400000</v>
+        <v>19.140000</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>133.090000</v>
+        <v>45.080000</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="L19" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="M19" t="n" s="0">
-        <v>3.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="N19" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.000000</v>
       </c>
       <c r="O19" t="n" s="0">
         <v/>
       </c>
       <c r="P19" t="s" s="0">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="n" s="0">
-        <v>6.020000</v>
+        <v>2.860000</v>
       </c>
       <c r="R19" t="n" s="0">
-        <v>65.210000</v>
+        <v>77.430000</v>
       </c>
       <c r="S19" t="n" s="0">
-        <v>51.380000</v>
+        <v>10.710000</v>
       </c>
       <c r="T19" t="n" s="0">
-        <v>11.980000</v>
+        <v>5.140000</v>
       </c>
       <c r="U19" t="n" s="0">
-        <v>44.070000</v>
+        <v>9.140000</v>
       </c>
       <c r="V19" t="n" s="0">
-        <v>8.380000</v>
+        <v>5.290000</v>
       </c>
       <c r="W19" t="n" s="0">
-        <v>20.360000</v>
+        <v>10.430000</v>
       </c>
       <c r="X19" t="n" s="0">
-        <v>95.450000</v>
+        <v>19.860000</v>
       </c>
       <c r="Y19" t="n" s="0">
-        <v>133.120000</v>
+        <v>46.270000</v>
       </c>
       <c r="Z19" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA19" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB19" t="n" s="0">
-        <v>3.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC19" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>6.000000</v>
@@ -2569,34 +2656,34 @@
         <v/>
       </c>
       <c r="P20" t="s" s="0">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="n" s="0">
         <v>6.020000</v>
       </c>
       <c r="R20" t="n" s="0">
-        <v>65.260000</v>
+        <v>65.210000</v>
       </c>
       <c r="S20" t="n" s="0">
-        <v>51.330000</v>
+        <v>51.380000</v>
       </c>
       <c r="T20" t="n" s="0">
-        <v>12.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="U20" t="n" s="0">
-        <v>44.020000</v>
+        <v>44.070000</v>
       </c>
       <c r="V20" t="n" s="0">
-        <v>8.330000</v>
+        <v>8.380000</v>
       </c>
       <c r="W20" t="n" s="0">
-        <v>20.330000</v>
+        <v>20.360000</v>
       </c>
       <c r="X20" t="n" s="0">
-        <v>95.360000</v>
+        <v>95.450000</v>
       </c>
       <c r="Y20" t="n" s="0">
-        <v>132.900000</v>
+        <v>133.120000</v>
       </c>
       <c r="Z20" t="n" s="0">
         <v>0.290000</v>
@@ -2613,447 +2700,447 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>3.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>75.110000</v>
+        <v>65.240000</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>11.330000</v>
+        <v>51.360000</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>6.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v>10.110000</v>
+        <v>44.050000</v>
       </c>
       <c r="G21" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.380000</v>
       </c>
       <c r="H21" t="n" s="0">
-        <v>11.110000</v>
+        <v>20.360000</v>
       </c>
       <c r="I21" t="n" s="0">
-        <v>21.440000</v>
+        <v>95.400000</v>
       </c>
       <c r="J21" t="n" s="0">
-        <v>51.120000</v>
+        <v>133.090000</v>
       </c>
       <c r="K21" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="L21" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="M21" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="N21" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
       <c r="O21" t="n" s="0">
         <v/>
       </c>
       <c r="P21" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="n" s="0">
-        <v>3.110000</v>
+        <v>6.020000</v>
       </c>
       <c r="R21" t="n" s="0">
-        <v>74.890000</v>
+        <v>65.260000</v>
       </c>
       <c r="S21" t="n" s="0">
-        <v>11.330000</v>
+        <v>51.330000</v>
       </c>
       <c r="T21" t="n" s="0">
-        <v>6.110000</v>
+        <v>12.000000</v>
       </c>
       <c r="U21" t="n" s="0">
-        <v>10.220000</v>
+        <v>44.020000</v>
       </c>
       <c r="V21" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.330000</v>
       </c>
       <c r="W21" t="n" s="0">
-        <v>11.220000</v>
+        <v>20.330000</v>
       </c>
       <c r="X21" t="n" s="0">
-        <v>21.560000</v>
+        <v>95.360000</v>
       </c>
       <c r="Y21" t="n" s="0">
-        <v>51.760000</v>
+        <v>132.900000</v>
       </c>
       <c r="Z21" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="AA21" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB21" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="AC21" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.000000</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>82.860000</v>
+        <v>75.110000</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>14.860000</v>
+        <v>11.330000</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>6.430000</v>
+        <v>6.000000</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>7.710000</v>
+        <v>10.110000</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.110000</v>
       </c>
       <c r="H22" t="n" s="0">
-        <v>10.000000</v>
+        <v>11.110000</v>
       </c>
       <c r="I22" t="n" s="0">
-        <v>22.570000</v>
+        <v>21.440000</v>
       </c>
       <c r="J22" t="n" s="0">
-        <v>50.990000</v>
+        <v>51.120000</v>
       </c>
       <c r="K22" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L22" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="M22" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="N22" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="O22" t="n" s="0">
         <v/>
       </c>
       <c r="P22" t="s" s="0">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="Q22" t="n" s="0">
-        <v>2.710000</v>
+        <v>3.110000</v>
       </c>
       <c r="R22" t="n" s="0">
-        <v>82.860000</v>
+        <v>74.890000</v>
       </c>
       <c r="S22" t="n" s="0">
-        <v>14.860000</v>
+        <v>11.330000</v>
       </c>
       <c r="T22" t="n" s="0">
-        <v>6.570000</v>
+        <v>6.110000</v>
       </c>
       <c r="U22" t="n" s="0">
-        <v>7.860000</v>
+        <v>10.220000</v>
       </c>
       <c r="V22" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.110000</v>
       </c>
       <c r="W22" t="n" s="0">
-        <v>10.140000</v>
+        <v>11.220000</v>
       </c>
       <c r="X22" t="n" s="0">
-        <v>22.710000</v>
+        <v>21.560000</v>
       </c>
       <c r="Y22" t="n" s="0">
-        <v>52.020000</v>
+        <v>51.760000</v>
       </c>
       <c r="Z22" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA22" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB22" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC22" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>2.190000</v>
+        <v>2.570000</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>85.000000</v>
+        <v>82.860000</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>9.130000</v>
+        <v>14.860000</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>3.970000</v>
+        <v>6.430000</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>8.190000</v>
+        <v>7.710000</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.570000</v>
       </c>
       <c r="H23" t="n" s="0">
-        <v>7.130000</v>
+        <v>10.000000</v>
       </c>
       <c r="I23" t="n" s="0">
-        <v>17.320000</v>
+        <v>22.570000</v>
       </c>
       <c r="J23" t="n" s="0">
-        <v>31.120000</v>
+        <v>50.990000</v>
       </c>
       <c r="K23" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="L23" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="M23" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="N23" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
       <c r="O23" t="n" s="0">
         <v/>
       </c>
       <c r="P23" t="s" s="0">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="n" s="0">
-        <v>2.290000</v>
+        <v>2.710000</v>
       </c>
       <c r="R23" t="n" s="0">
-        <v>84.940000</v>
+        <v>82.860000</v>
       </c>
       <c r="S23" t="n" s="0">
-        <v>9.320000</v>
+        <v>14.860000</v>
       </c>
       <c r="T23" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.570000</v>
       </c>
       <c r="U23" t="n" s="0">
-        <v>8.520000</v>
+        <v>7.860000</v>
       </c>
       <c r="V23" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.570000</v>
       </c>
       <c r="W23" t="n" s="0">
-        <v>7.190000</v>
+        <v>10.140000</v>
       </c>
       <c r="X23" t="n" s="0">
-        <v>17.840000</v>
+        <v>22.710000</v>
       </c>
       <c r="Y23" t="n" s="0">
-        <v>31.720000</v>
+        <v>52.020000</v>
       </c>
       <c r="Z23" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA23" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="AB23" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="AC23" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B24" t="n" s="0">
+        <v>2.190000</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>85.000000</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>9.130000</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>3.970000</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>8.190000</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>3.160000</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>7.130000</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>17.320000</v>
+      </c>
+      <c r="J24" t="n" s="0">
+        <v>31.120000</v>
+      </c>
+      <c r="K24" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="L24" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="M24" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="N24" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+      <c r="O24" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P24" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="Q24" t="n" s="0">
+        <v>2.290000</v>
+      </c>
+      <c r="R24" t="n" s="0">
+        <v>84.940000</v>
+      </c>
+      <c r="S24" t="n" s="0">
+        <v>9.320000</v>
+      </c>
+      <c r="T24" t="n" s="0">
+        <v>4.000000</v>
+      </c>
+      <c r="U24" t="n" s="0">
+        <v>8.520000</v>
+      </c>
+      <c r="V24" t="n" s="0">
+        <v>3.190000</v>
+      </c>
+      <c r="W24" t="n" s="0">
+        <v>7.190000</v>
+      </c>
+      <c r="X24" t="n" s="0">
+        <v>17.840000</v>
+      </c>
+      <c r="Y24" t="n" s="0">
+        <v>31.720000</v>
+      </c>
+      <c r="Z24" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="AA24" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="AB24" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="AC24" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B25" t="n" s="0">
         <v>7.250000</v>
       </c>
-      <c r="C24" t="n" s="0">
+      <c r="C25" t="n" s="0">
         <v>61.250000</v>
       </c>
-      <c r="D24" t="n" s="0">
+      <c r="D25" t="n" s="0">
         <v>61.750000</v>
       </c>
-      <c r="E24" t="n" s="0">
+      <c r="E25" t="n" s="0">
         <v>14.250000</v>
       </c>
-      <c r="F24" t="n" s="0">
+      <c r="F25" t="n" s="0">
         <v>42.500000</v>
       </c>
-      <c r="G24" t="n" s="0">
+      <c r="G25" t="n" s="0">
         <v>8.250000</v>
       </c>
-      <c r="H24" t="n" s="0">
+      <c r="H25" t="n" s="0">
         <v>22.500000</v>
       </c>
-      <c r="I24" t="n" s="0">
+      <c r="I25" t="n" s="0">
         <v>104.250000</v>
       </c>
-      <c r="J24" t="n" s="0">
+      <c r="J25" t="n" s="0">
         <v>151.160000</v>
       </c>
-      <c r="K24" t="n" s="0">
+      <c r="K25" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="L24" t="n" s="0">
+      <c r="L25" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="M24" t="n" s="0">
+      <c r="M25" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="N24" t="n" s="0">
+      <c r="N25" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="O24" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P24" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="Q24" t="n" s="0">
+      <c r="O25" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P25" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="Q25" t="n" s="0">
         <v>6.250000</v>
       </c>
-      <c r="R24" t="n" s="0">
+      <c r="R25" t="n" s="0">
         <v>63.250000</v>
       </c>
-      <c r="S24" t="n" s="0">
+      <c r="S25" t="n" s="0">
         <v>57.500000</v>
       </c>
-      <c r="T24" t="n" s="0">
+      <c r="T25" t="n" s="0">
         <v>13.750000</v>
       </c>
-      <c r="U24" t="n" s="0">
+      <c r="U25" t="n" s="0">
         <v>38.500000</v>
       </c>
-      <c r="V24" t="n" s="0">
+      <c r="V25" t="n" s="0">
         <v>7.500000</v>
       </c>
-      <c r="W24" t="n" s="0">
+      <c r="W25" t="n" s="0">
         <v>21.250000</v>
       </c>
-      <c r="X24" t="n" s="0">
+      <c r="X25" t="n" s="0">
         <v>96.000000</v>
       </c>
-      <c r="Y24" t="n" s="0">
+      <c r="Y25" t="n" s="0">
         <v>139.520000</v>
       </c>
-      <c r="Z24" t="n" s="0">
+      <c r="Z25" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AA24" t="n" s="0">
+      <c r="AA25" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AB24" t="n" s="0">
+      <c r="AB25" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AC24" t="n" s="0">
+      <c r="AC25" t="n" s="0">
         <v>0.000000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="B25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="C25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="D25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="E25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="F25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="G25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="H25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="I25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="J25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="K25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="L25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="M25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="N25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="O25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Q25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="R25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="S25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="T25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="U25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="V25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="W25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="X25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Y25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Z25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AA25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AB25" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AC25" t="n" s="0">
-        <v/>
       </c>
     </row>
     <row r="26">
@@ -10889,747 +10976,747 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="0">
-        <v>48</v>
+      <c r="A114" t="n" s="0">
+        <v/>
       </c>
       <c r="B114" t="n" s="0">
-        <v>2.830000</v>
+        <v/>
       </c>
       <c r="C114" t="n" s="0">
-        <v>79.980000</v>
+        <v/>
       </c>
       <c r="D114" t="n" s="0">
-        <v>18.670000</v>
+        <v/>
       </c>
       <c r="E114" t="n" s="0">
-        <v>6.580000</v>
+        <v/>
       </c>
       <c r="F114" t="n" s="0">
-        <v>9.830000</v>
+        <v/>
       </c>
       <c r="G114" t="n" s="0">
-        <v>2.710000</v>
+        <v/>
       </c>
       <c r="H114" t="n" s="0">
-        <v>9.290000</v>
+        <v/>
       </c>
       <c r="I114" t="n" s="0">
-        <v>28.500000</v>
+        <v/>
       </c>
       <c r="J114" t="n" s="0">
-        <v>46.750000</v>
+        <v/>
       </c>
       <c r="K114" t="n" s="0">
-        <v>0.045000</v>
+        <v/>
       </c>
       <c r="L114" t="n" s="0">
-        <v>0.023000</v>
+        <v/>
       </c>
       <c r="M114" t="n" s="0">
-        <v>0.790000</v>
+        <v/>
       </c>
       <c r="N114" t="n" s="0">
-        <v>0.044000</v>
+        <v/>
       </c>
       <c r="O114" t="n" s="0">
         <v/>
       </c>
-      <c r="P114" t="s" s="0">
-        <v>49</v>
+      <c r="P114" t="n" s="0">
+        <v/>
       </c>
       <c r="Q114" t="n" s="0">
-        <v>2.850000</v>
+        <v/>
       </c>
       <c r="R114" t="n" s="0">
-        <v>79.970000</v>
+        <v/>
       </c>
       <c r="S114" t="n" s="0">
-        <v>18.670000</v>
+        <v/>
       </c>
       <c r="T114" t="n" s="0">
-        <v>6.590000</v>
+        <v/>
       </c>
       <c r="U114" t="n" s="0">
-        <v>9.850000</v>
+        <v/>
       </c>
       <c r="V114" t="n" s="0">
-        <v>2.710000</v>
+        <v/>
       </c>
       <c r="W114" t="n" s="0">
-        <v>9.300000</v>
+        <v/>
       </c>
       <c r="X114" t="n" s="0">
-        <v>28.520000</v>
+        <v/>
       </c>
       <c r="Y114" t="n" s="0">
-        <v>46.850000</v>
+        <v/>
       </c>
       <c r="Z114" t="n" s="0">
-        <v>0.045000</v>
+        <v/>
       </c>
       <c r="AA114" t="n" s="0">
-        <v>0.023000</v>
+        <v/>
       </c>
       <c r="AB114" t="n" s="0">
-        <v>0.790000</v>
+        <v/>
       </c>
       <c r="AC114" t="n" s="0">
-        <v>0.044000</v>
+        <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B115" t="n" s="0">
-        <v>7.000000</v>
+        <v>2.830000</v>
       </c>
       <c r="C115" t="n" s="0">
-        <v>62.100000</v>
+        <v>79.980000</v>
       </c>
       <c r="D115" t="n" s="0">
-        <v>67.800000</v>
+        <v>18.670000</v>
       </c>
       <c r="E115" t="n" s="0">
-        <v>12.300000</v>
+        <v>6.580000</v>
       </c>
       <c r="F115" t="n" s="0">
-        <v>30.100000</v>
+        <v>9.830000</v>
       </c>
       <c r="G115" t="n" s="0">
-        <v>3.800000</v>
+        <v>2.710000</v>
       </c>
       <c r="H115" t="n" s="0">
-        <v>16.100000</v>
+        <v>9.290000</v>
       </c>
       <c r="I115" t="n" s="0">
-        <v>97.900000</v>
+        <v>28.500000</v>
       </c>
       <c r="J115" t="n" s="0">
-        <v>109.000000</v>
+        <v>46.750000</v>
       </c>
       <c r="K115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.045000</v>
       </c>
       <c r="L115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.023000</v>
       </c>
       <c r="M115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.790000</v>
       </c>
       <c r="N115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.044000</v>
       </c>
       <c r="O115" t="n" s="0">
         <v/>
       </c>
       <c r="P115" t="s" s="0">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q115" t="n" s="0">
-        <v>7.100000</v>
+        <v>2.850000</v>
       </c>
       <c r="R115" t="n" s="0">
-        <v>62.000000</v>
+        <v>79.970000</v>
       </c>
       <c r="S115" t="n" s="0">
-        <v>67.700000</v>
+        <v>18.670000</v>
       </c>
       <c r="T115" t="n" s="0">
-        <v>12.400000</v>
+        <v>6.590000</v>
       </c>
       <c r="U115" t="n" s="0">
-        <v>30.100000</v>
+        <v>9.850000</v>
       </c>
       <c r="V115" t="n" s="0">
-        <v>3.800000</v>
+        <v>2.710000</v>
       </c>
       <c r="W115" t="n" s="0">
-        <v>16.200000</v>
+        <v>9.300000</v>
       </c>
       <c r="X115" t="n" s="0">
-        <v>97.800000</v>
+        <v>28.520000</v>
       </c>
       <c r="Y115" t="n" s="0">
-        <v>109.750000</v>
+        <v>46.850000</v>
       </c>
       <c r="Z115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.045000</v>
       </c>
       <c r="AA115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.023000</v>
       </c>
       <c r="AB115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.790000</v>
       </c>
       <c r="AC115" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.044000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B116" t="n" s="0">
-        <v>4.910000</v>
+        <v>7.000000</v>
       </c>
       <c r="C116" t="n" s="0">
-        <v>75.360000</v>
+        <v>62.100000</v>
       </c>
       <c r="D116" t="n" s="0">
-        <v>43.180000</v>
+        <v>67.800000</v>
       </c>
       <c r="E116" t="n" s="0">
-        <v>10.730000</v>
+        <v>12.300000</v>
       </c>
       <c r="F116" t="n" s="0">
-        <v>25.550000</v>
+        <v>30.100000</v>
       </c>
       <c r="G116" t="n" s="0">
-        <v>4.270000</v>
+        <v>3.800000</v>
       </c>
       <c r="H116" t="n" s="0">
-        <v>15.000000</v>
+        <v>16.100000</v>
       </c>
       <c r="I116" t="n" s="0">
-        <v>68.730000</v>
+        <v>97.900000</v>
       </c>
       <c r="J116" t="n" s="0">
-        <v>104.340000</v>
+        <v>109.000000</v>
       </c>
       <c r="K116" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="L116" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="M116" t="n" s="0">
-        <v>2.310000</v>
+        <v>0.000000</v>
       </c>
       <c r="N116" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.000000</v>
       </c>
       <c r="O116" t="n" s="0">
         <v/>
       </c>
       <c r="P116" t="s" s="0">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q116" t="n" s="0">
-        <v>4.640000</v>
+        <v>7.100000</v>
       </c>
       <c r="R116" t="n" s="0">
-        <v>75.360000</v>
+        <v>62.000000</v>
       </c>
       <c r="S116" t="n" s="0">
-        <v>42.090000</v>
+        <v>67.700000</v>
       </c>
       <c r="T116" t="n" s="0">
-        <v>10.640000</v>
+        <v>12.400000</v>
       </c>
       <c r="U116" t="n" s="0">
-        <v>24.910000</v>
+        <v>30.100000</v>
       </c>
       <c r="V116" t="n" s="0">
-        <v>4.090000</v>
+        <v>3.800000</v>
       </c>
       <c r="W116" t="n" s="0">
-        <v>14.730000</v>
+        <v>16.200000</v>
       </c>
       <c r="X116" t="n" s="0">
-        <v>67.000000</v>
+        <v>97.800000</v>
       </c>
       <c r="Y116" t="n" s="0">
-        <v>101.410000</v>
+        <v>109.750000</v>
       </c>
       <c r="Z116" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA116" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB116" t="n" s="0">
-        <v>2.310000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC116" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B117" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.910000</v>
       </c>
       <c r="C117" t="n" s="0">
-        <v>83.680000</v>
+        <v>75.360000</v>
       </c>
       <c r="D117" t="n" s="0">
-        <v>9.380000</v>
+        <v>43.180000</v>
       </c>
       <c r="E117" t="n" s="0">
-        <v>4.290000</v>
+        <v>10.730000</v>
       </c>
       <c r="F117" t="n" s="0">
-        <v>5.710000</v>
+        <v>25.550000</v>
       </c>
       <c r="G117" t="n" s="0">
-        <v>2.590000</v>
+        <v>4.270000</v>
       </c>
       <c r="H117" t="n" s="0">
-        <v>6.880000</v>
+        <v>15.000000</v>
       </c>
       <c r="I117" t="n" s="0">
-        <v>15.090000</v>
+        <v>68.730000</v>
       </c>
       <c r="J117" t="n" s="0">
-        <v>28.850000</v>
+        <v>104.340000</v>
       </c>
       <c r="K117" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="L117" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="M117" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="N117" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
       <c r="O117" t="n" s="0">
         <v/>
       </c>
       <c r="P117" t="s" s="0">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q117" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.640000</v>
       </c>
       <c r="R117" t="n" s="0">
-        <v>83.710000</v>
+        <v>75.360000</v>
       </c>
       <c r="S117" t="n" s="0">
-        <v>9.290000</v>
+        <v>42.090000</v>
       </c>
       <c r="T117" t="n" s="0">
-        <v>4.320000</v>
+        <v>10.640000</v>
       </c>
       <c r="U117" t="n" s="0">
-        <v>5.740000</v>
+        <v>24.910000</v>
       </c>
       <c r="V117" t="n" s="0">
-        <v>2.680000</v>
+        <v>4.090000</v>
       </c>
       <c r="W117" t="n" s="0">
-        <v>7.000000</v>
+        <v>14.730000</v>
       </c>
       <c r="X117" t="n" s="0">
-        <v>15.030000</v>
+        <v>67.000000</v>
       </c>
       <c r="Y117" t="n" s="0">
-        <v>29.460000</v>
+        <v>101.410000</v>
       </c>
       <c r="Z117" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="AA117" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="AB117" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="AC117" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B118" t="n" s="0">
-        <v>3.760000</v>
+        <v>2.240000</v>
       </c>
       <c r="C118" t="n" s="0">
-        <v>76.240000</v>
+        <v>83.680000</v>
       </c>
       <c r="D118" t="n" s="0">
-        <v>13.120000</v>
+        <v>9.380000</v>
       </c>
       <c r="E118" t="n" s="0">
-        <v>6.760000</v>
+        <v>4.290000</v>
       </c>
       <c r="F118" t="n" s="0">
-        <v>9.280000</v>
+        <v>5.710000</v>
       </c>
       <c r="G118" t="n" s="0">
-        <v>3.480000</v>
+        <v>2.590000</v>
       </c>
       <c r="H118" t="n" s="0">
-        <v>10.240000</v>
+        <v>6.880000</v>
       </c>
       <c r="I118" t="n" s="0">
-        <v>22.400000</v>
+        <v>15.090000</v>
       </c>
       <c r="J118" t="n" s="0">
-        <v>50.170000</v>
+        <v>28.850000</v>
       </c>
       <c r="K118" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.059000</v>
       </c>
       <c r="L118" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.015000</v>
       </c>
       <c r="M118" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.830000</v>
       </c>
       <c r="N118" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.046000</v>
       </c>
       <c r="O118" t="n" s="0">
         <v/>
       </c>
       <c r="P118" t="s" s="0">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q118" t="n" s="0">
-        <v>3.760000</v>
+        <v>2.240000</v>
       </c>
       <c r="R118" t="n" s="0">
-        <v>76.320000</v>
+        <v>83.710000</v>
       </c>
       <c r="S118" t="n" s="0">
-        <v>12.840000</v>
+        <v>9.290000</v>
       </c>
       <c r="T118" t="n" s="0">
-        <v>6.680000</v>
+        <v>4.320000</v>
       </c>
       <c r="U118" t="n" s="0">
-        <v>9.280000</v>
+        <v>5.740000</v>
       </c>
       <c r="V118" t="n" s="0">
-        <v>3.480000</v>
+        <v>2.680000</v>
       </c>
       <c r="W118" t="n" s="0">
-        <v>10.160000</v>
+        <v>7.000000</v>
       </c>
       <c r="X118" t="n" s="0">
-        <v>22.120000</v>
+        <v>15.030000</v>
       </c>
       <c r="Y118" t="n" s="0">
-        <v>49.440000</v>
+        <v>29.460000</v>
       </c>
       <c r="Z118" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.059000</v>
       </c>
       <c r="AA118" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.015000</v>
       </c>
       <c r="AB118" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.830000</v>
       </c>
       <c r="AC118" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.046000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B119" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="C119" t="n" s="0">
-        <v>82.860000</v>
+        <v>76.240000</v>
       </c>
       <c r="D119" t="n" s="0">
-        <v>8.920000</v>
+        <v>13.120000</v>
       </c>
       <c r="E119" t="n" s="0">
-        <v>5.650000</v>
+        <v>6.760000</v>
       </c>
       <c r="F119" t="n" s="0">
-        <v>5.760000</v>
+        <v>9.280000</v>
       </c>
       <c r="G119" t="n" s="0">
-        <v>2.030000</v>
+        <v>3.480000</v>
       </c>
       <c r="H119" t="n" s="0">
-        <v>7.680000</v>
+        <v>10.240000</v>
       </c>
       <c r="I119" t="n" s="0">
-        <v>14.680000</v>
+        <v>22.400000</v>
       </c>
       <c r="J119" t="n" s="0">
-        <v>29.950000</v>
+        <v>50.170000</v>
       </c>
       <c r="K119" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="L119" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="M119" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="N119" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
       <c r="O119" t="n" s="0">
         <v/>
       </c>
       <c r="P119" t="s" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q119" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="R119" t="n" s="0">
-        <v>82.890000</v>
+        <v>76.320000</v>
       </c>
       <c r="S119" t="n" s="0">
-        <v>8.890000</v>
+        <v>12.840000</v>
       </c>
       <c r="T119" t="n" s="0">
-        <v>5.620000</v>
+        <v>6.680000</v>
       </c>
       <c r="U119" t="n" s="0">
-        <v>5.730000</v>
+        <v>9.280000</v>
       </c>
       <c r="V119" t="n" s="0">
-        <v>2.030000</v>
+        <v>3.480000</v>
       </c>
       <c r="W119" t="n" s="0">
-        <v>7.650000</v>
+        <v>10.160000</v>
       </c>
       <c r="X119" t="n" s="0">
-        <v>14.620000</v>
+        <v>22.120000</v>
       </c>
       <c r="Y119" t="n" s="0">
-        <v>29.740000</v>
+        <v>49.440000</v>
       </c>
       <c r="Z119" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="AA119" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="AB119" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="AC119" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B120" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.190000</v>
       </c>
       <c r="C120" t="n" s="0">
-        <v>80.250000</v>
+        <v>82.860000</v>
       </c>
       <c r="D120" t="n" s="0">
-        <v>2.250000</v>
+        <v>8.920000</v>
       </c>
       <c r="E120" t="n" s="0">
-        <v>3.500000</v>
+        <v>5.650000</v>
       </c>
       <c r="F120" t="n" s="0">
-        <v>5.750000</v>
+        <v>5.760000</v>
       </c>
       <c r="G120" t="n" s="0">
-        <v>3.750000</v>
+        <v>2.030000</v>
       </c>
       <c r="H120" t="n" s="0">
-        <v>7.250000</v>
+        <v>7.680000</v>
       </c>
       <c r="I120" t="n" s="0">
-        <v>8.000000</v>
+        <v>14.680000</v>
       </c>
       <c r="J120" t="n" s="0">
-        <v>23.100000</v>
+        <v>29.950000</v>
       </c>
       <c r="K120" t="n" s="0">
-        <v>6.500000</v>
+        <v>0.270000</v>
       </c>
       <c r="L120" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.110000</v>
       </c>
       <c r="M120" t="n" s="0">
-        <v>179.440000</v>
+        <v>10.430000</v>
       </c>
       <c r="N120" t="n" s="0">
-        <v>9.970000</v>
+        <v>0.580000</v>
       </c>
       <c r="O120" t="n" s="0">
         <v/>
       </c>
       <c r="P120" t="s" s="0">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Q120" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.190000</v>
       </c>
       <c r="R120" t="n" s="0">
-        <v>80.170000</v>
+        <v>82.890000</v>
       </c>
       <c r="S120" t="n" s="0">
-        <v>2.250000</v>
+        <v>8.890000</v>
       </c>
       <c r="T120" t="n" s="0">
-        <v>3.580000</v>
+        <v>5.620000</v>
       </c>
       <c r="U120" t="n" s="0">
-        <v>5.750000</v>
+        <v>5.730000</v>
       </c>
       <c r="V120" t="n" s="0">
-        <v>3.750000</v>
+        <v>2.030000</v>
       </c>
       <c r="W120" t="n" s="0">
-        <v>7.330000</v>
+        <v>7.650000</v>
       </c>
       <c r="X120" t="n" s="0">
-        <v>8.000000</v>
+        <v>14.620000</v>
       </c>
       <c r="Y120" t="n" s="0">
-        <v>23.390000</v>
+        <v>29.740000</v>
       </c>
       <c r="Z120" t="n" s="0">
-        <v>6.920000</v>
+        <v>0.270000</v>
       </c>
       <c r="AA120" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.110000</v>
       </c>
       <c r="AB120" t="n" s="0">
-        <v>196.730000</v>
+        <v>10.430000</v>
       </c>
       <c r="AC120" t="n" s="0">
-        <v>10.930000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B121" t="n" s="0">
-        <v>5.130000</v>
+        <v>2.170000</v>
       </c>
       <c r="C121" t="n" s="0">
-        <v>73.420000</v>
+        <v>80.250000</v>
       </c>
       <c r="D121" t="n" s="0">
-        <v>17.920000</v>
+        <v>2.250000</v>
       </c>
       <c r="E121" t="n" s="0">
-        <v>6.770000</v>
+        <v>3.500000</v>
       </c>
       <c r="F121" t="n" s="0">
-        <v>11.960000</v>
+        <v>5.750000</v>
       </c>
       <c r="G121" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="H121" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.250000</v>
       </c>
       <c r="I121" t="n" s="0">
-        <v>29.890000</v>
+        <v>8.000000</v>
       </c>
       <c r="J121" t="n" s="0">
-        <v>58.170000</v>
+        <v>23.100000</v>
       </c>
       <c r="K121" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.500000</v>
       </c>
       <c r="L121" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="M121" t="n" s="0">
-        <v>0.000000</v>
+        <v>179.440000</v>
       </c>
       <c r="N121" t="n" s="0">
-        <v>0.000000</v>
+        <v>9.970000</v>
       </c>
       <c r="O121" t="n" s="0">
         <v/>
       </c>
       <c r="P121" t="s" s="0">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="Q121" t="n" s="0">
-        <v>5.060000</v>
+        <v>2.170000</v>
       </c>
       <c r="R121" t="n" s="0">
-        <v>73.430000</v>
+        <v>80.170000</v>
       </c>
       <c r="S121" t="n" s="0">
-        <v>17.790000</v>
+        <v>2.250000</v>
       </c>
       <c r="T121" t="n" s="0">
-        <v>6.750000</v>
+        <v>3.580000</v>
       </c>
       <c r="U121" t="n" s="0">
-        <v>11.700000</v>
+        <v>5.750000</v>
       </c>
       <c r="V121" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="W121" t="n" s="0">
-        <v>11.550000</v>
+        <v>7.330000</v>
       </c>
       <c r="X121" t="n" s="0">
-        <v>29.490000</v>
+        <v>8.000000</v>
       </c>
       <c r="Y121" t="n" s="0">
-        <v>57.930000</v>
+        <v>23.390000</v>
       </c>
       <c r="Z121" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.920000</v>
       </c>
       <c r="AA121" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="AB121" t="n" s="0">
-        <v>0.000000</v>
+        <v>196.730000</v>
       </c>
       <c r="AC121" t="n" s="0">
-        <v>0.000000</v>
+        <v>10.930000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B122" t="n" s="0">
-        <v>4.450000</v>
+        <v>5.130000</v>
       </c>
       <c r="C122" t="n" s="0">
-        <v>80.000000</v>
+        <v>73.420000</v>
       </c>
       <c r="D122" t="n" s="0">
-        <v>26.350000</v>
+        <v>17.920000</v>
       </c>
       <c r="E122" t="n" s="0">
-        <v>7.600000</v>
+        <v>6.770000</v>
       </c>
       <c r="F122" t="n" s="0">
-        <v>17.450000</v>
+        <v>11.960000</v>
       </c>
       <c r="G122" t="n" s="0">
-        <v>3.050000</v>
+        <v>4.790000</v>
       </c>
       <c r="H122" t="n" s="0">
-        <v>10.650000</v>
+        <v>11.570000</v>
       </c>
       <c r="I122" t="n" s="0">
-        <v>43.800000</v>
+        <v>29.890000</v>
       </c>
       <c r="J122" t="n" s="0">
-        <v>63.760000</v>
+        <v>58.170000</v>
       </c>
       <c r="K122" t="n" s="0">
         <v>0.000000</v>
@@ -11647,34 +11734,34 @@
         <v/>
       </c>
       <c r="P122" t="s" s="0">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="Q122" t="n" s="0">
-        <v>4.380000</v>
+        <v>5.060000</v>
       </c>
       <c r="R122" t="n" s="0">
-        <v>79.240000</v>
+        <v>73.430000</v>
       </c>
       <c r="S122" t="n" s="0">
-        <v>27.290000</v>
+        <v>17.790000</v>
       </c>
       <c r="T122" t="n" s="0">
-        <v>7.810000</v>
+        <v>6.750000</v>
       </c>
       <c r="U122" t="n" s="0">
-        <v>17.570000</v>
+        <v>11.700000</v>
       </c>
       <c r="V122" t="n" s="0">
-        <v>3.140000</v>
+        <v>4.790000</v>
       </c>
       <c r="W122" t="n" s="0">
-        <v>10.950000</v>
+        <v>11.550000</v>
       </c>
       <c r="X122" t="n" s="0">
-        <v>44.860000</v>
+        <v>29.490000</v>
       </c>
       <c r="Y122" t="n" s="0">
-        <v>65.270000</v>
+        <v>57.930000</v>
       </c>
       <c r="Z122" t="n" s="0">
         <v>0.000000</v>
@@ -11691,897 +11778,897 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B123" t="n" s="0">
-        <v>2.040000</v>
+        <v>4.450000</v>
       </c>
       <c r="C123" t="n" s="0">
-        <v>83.210000</v>
+        <v>80.000000</v>
       </c>
       <c r="D123" t="n" s="0">
-        <v>10.790000</v>
+        <v>26.350000</v>
       </c>
       <c r="E123" t="n" s="0">
-        <v>4.930000</v>
+        <v>7.600000</v>
       </c>
       <c r="F123" t="n" s="0">
-        <v>6.180000</v>
+        <v>17.450000</v>
       </c>
       <c r="G123" t="n" s="0">
-        <v>2.860000</v>
+        <v>3.050000</v>
       </c>
       <c r="H123" t="n" s="0">
-        <v>7.790000</v>
+        <v>10.650000</v>
       </c>
       <c r="I123" t="n" s="0">
-        <v>16.960000</v>
+        <v>43.800000</v>
       </c>
       <c r="J123" t="n" s="0">
-        <v>34.990000</v>
+        <v>63.760000</v>
       </c>
       <c r="K123" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="L123" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="M123" t="n" s="0">
-        <v>1.130000</v>
+        <v>0.000000</v>
       </c>
       <c r="N123" t="n" s="0">
-        <v>0.063000</v>
+        <v>0.000000</v>
       </c>
       <c r="O123" t="n" s="0">
         <v/>
       </c>
       <c r="P123" t="s" s="0">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="Q123" t="n" s="0">
-        <v>1.960000</v>
+        <v>4.380000</v>
       </c>
       <c r="R123" t="n" s="0">
-        <v>83.250000</v>
+        <v>79.240000</v>
       </c>
       <c r="S123" t="n" s="0">
-        <v>10.570000</v>
+        <v>27.290000</v>
       </c>
       <c r="T123" t="n" s="0">
-        <v>4.930000</v>
+        <v>7.810000</v>
       </c>
       <c r="U123" t="n" s="0">
-        <v>5.860000</v>
+        <v>17.570000</v>
       </c>
       <c r="V123" t="n" s="0">
-        <v>2.680000</v>
+        <v>3.140000</v>
       </c>
       <c r="W123" t="n" s="0">
-        <v>7.610000</v>
+        <v>10.950000</v>
       </c>
       <c r="X123" t="n" s="0">
-        <v>16.430000</v>
+        <v>44.860000</v>
       </c>
       <c r="Y123" t="n" s="0">
-        <v>33.580000</v>
+        <v>65.270000</v>
       </c>
       <c r="Z123" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA123" t="n" s="0">
-        <v>0.036000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB123" t="n" s="0">
-        <v>1.130000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC123" t="n" s="0">
-        <v>0.063000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B124" t="n" s="0">
-        <v>1.410000</v>
+        <v>2.040000</v>
       </c>
       <c r="C124" t="n" s="0">
-        <v>86.360000</v>
+        <v>83.210000</v>
       </c>
       <c r="D124" t="n" s="0">
-        <v>4.550000</v>
+        <v>10.790000</v>
       </c>
       <c r="E124" t="n" s="0">
-        <v>3.180000</v>
+        <v>4.930000</v>
       </c>
       <c r="F124" t="n" s="0">
-        <v>5.090000</v>
+        <v>6.180000</v>
       </c>
       <c r="G124" t="n" s="0">
-        <v>3.180000</v>
+        <v>2.860000</v>
       </c>
       <c r="H124" t="n" s="0">
-        <v>6.360000</v>
+        <v>7.790000</v>
       </c>
       <c r="I124" t="n" s="0">
-        <v>9.640000</v>
+        <v>16.960000</v>
       </c>
       <c r="J124" t="n" s="0">
-        <v>21.740000</v>
+        <v>34.990000</v>
       </c>
       <c r="K124" t="n" s="0">
-        <v>2.140000</v>
+        <v>0.036000</v>
       </c>
       <c r="L124" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.036000</v>
       </c>
       <c r="M124" t="n" s="0">
-        <v>50.220000</v>
+        <v>1.130000</v>
       </c>
       <c r="N124" t="n" s="0">
-        <v>2.790000</v>
+        <v>0.063000</v>
       </c>
       <c r="O124" t="n" s="0">
         <v/>
       </c>
       <c r="P124" t="s" s="0">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="Q124" t="n" s="0">
-        <v>1.500000</v>
+        <v>1.960000</v>
       </c>
       <c r="R124" t="n" s="0">
-        <v>86.360000</v>
+        <v>83.250000</v>
       </c>
       <c r="S124" t="n" s="0">
-        <v>4.680000</v>
+        <v>10.570000</v>
       </c>
       <c r="T124" t="n" s="0">
-        <v>3.180000</v>
+        <v>4.930000</v>
       </c>
       <c r="U124" t="n" s="0">
-        <v>5.270000</v>
+        <v>5.860000</v>
       </c>
       <c r="V124" t="n" s="0">
-        <v>3.270000</v>
+        <v>2.680000</v>
       </c>
       <c r="W124" t="n" s="0">
-        <v>6.450000</v>
+        <v>7.610000</v>
       </c>
       <c r="X124" t="n" s="0">
-        <v>9.950000</v>
+        <v>16.430000</v>
       </c>
       <c r="Y124" t="n" s="0">
-        <v>22.690000</v>
+        <v>33.580000</v>
       </c>
       <c r="Z124" t="n" s="0">
-        <v>2.000000</v>
+        <v>0.036000</v>
       </c>
       <c r="AA124" t="n" s="0">
-        <v>0.170000</v>
+        <v>0.036000</v>
       </c>
       <c r="AB124" t="n" s="0">
-        <v>48.050000</v>
+        <v>1.130000</v>
       </c>
       <c r="AC124" t="n" s="0">
-        <v>2.670000</v>
+        <v>0.063000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B125" t="n" s="0">
-        <v>3.500000</v>
+        <v>1.410000</v>
       </c>
       <c r="C125" t="n" s="0">
-        <v>75.430000</v>
+        <v>86.360000</v>
       </c>
       <c r="D125" t="n" s="0">
-        <v>20.940000</v>
+        <v>4.550000</v>
       </c>
       <c r="E125" t="n" s="0">
-        <v>8.540000</v>
+        <v>3.180000</v>
       </c>
       <c r="F125" t="n" s="0">
-        <v>16.850000</v>
+        <v>5.090000</v>
       </c>
       <c r="G125" t="n" s="0">
-        <v>5.260000</v>
+        <v>3.180000</v>
       </c>
       <c r="H125" t="n" s="0">
-        <v>13.800000</v>
+        <v>6.360000</v>
       </c>
       <c r="I125" t="n" s="0">
-        <v>37.800000</v>
+        <v>9.640000</v>
       </c>
       <c r="J125" t="n" s="0">
-        <v>75.060000</v>
+        <v>21.740000</v>
       </c>
       <c r="K125" t="n" s="0">
-        <v>0.260000</v>
+        <v>2.140000</v>
       </c>
       <c r="L125" t="n" s="0">
-        <v>0.039000</v>
+        <v>0.140000</v>
       </c>
       <c r="M125" t="n" s="0">
-        <v>5.570000</v>
+        <v>50.220000</v>
       </c>
       <c r="N125" t="n" s="0">
-        <v>0.310000</v>
+        <v>2.790000</v>
       </c>
       <c r="O125" t="n" s="0">
         <v/>
       </c>
       <c r="P125" t="s" s="0">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Q125" t="n" s="0">
-        <v>3.460000</v>
+        <v>1.500000</v>
       </c>
       <c r="R125" t="n" s="0">
-        <v>75.540000</v>
+        <v>86.360000</v>
       </c>
       <c r="S125" t="n" s="0">
-        <v>20.940000</v>
+        <v>4.680000</v>
       </c>
       <c r="T125" t="n" s="0">
-        <v>8.520000</v>
+        <v>3.180000</v>
       </c>
       <c r="U125" t="n" s="0">
-        <v>16.700000</v>
+        <v>5.270000</v>
       </c>
       <c r="V125" t="n" s="0">
-        <v>5.200000</v>
+        <v>3.270000</v>
       </c>
       <c r="W125" t="n" s="0">
-        <v>13.720000</v>
+        <v>6.450000</v>
       </c>
       <c r="X125" t="n" s="0">
-        <v>37.650000</v>
+        <v>9.950000</v>
       </c>
       <c r="Y125" t="n" s="0">
-        <v>74.730000</v>
+        <v>22.690000</v>
       </c>
       <c r="Z125" t="n" s="0">
-        <v>0.093000</v>
+        <v>2.000000</v>
       </c>
       <c r="AA125" t="n" s="0">
-        <v>0.037000</v>
+        <v>0.170000</v>
       </c>
       <c r="AB125" t="n" s="0">
-        <v>2.300000</v>
+        <v>48.050000</v>
       </c>
       <c r="AC125" t="n" s="0">
-        <v>0.130000</v>
+        <v>2.670000</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B126" t="n" s="0">
-        <v>4.710000</v>
+        <v>3.500000</v>
       </c>
       <c r="C126" t="n" s="0">
-        <v>73.000000</v>
+        <v>75.430000</v>
       </c>
       <c r="D126" t="n" s="0">
-        <v>20.000000</v>
+        <v>20.940000</v>
       </c>
       <c r="E126" t="n" s="0">
-        <v>7.570000</v>
+        <v>8.540000</v>
       </c>
       <c r="F126" t="n" s="0">
-        <v>17.140000</v>
+        <v>16.850000</v>
       </c>
       <c r="G126" t="n" s="0">
-        <v>5.430000</v>
+        <v>5.260000</v>
       </c>
       <c r="H126" t="n" s="0">
-        <v>13.000000</v>
+        <v>13.800000</v>
       </c>
       <c r="I126" t="n" s="0">
-        <v>37.140000</v>
+        <v>37.800000</v>
       </c>
       <c r="J126" t="n" s="0">
-        <v>70.010000</v>
+        <v>75.060000</v>
       </c>
       <c r="K126" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.260000</v>
       </c>
       <c r="L126" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.039000</v>
       </c>
       <c r="M126" t="n" s="0">
-        <v>32.860000</v>
+        <v>5.570000</v>
       </c>
       <c r="N126" t="n" s="0">
-        <v>1.830000</v>
+        <v>0.310000</v>
       </c>
       <c r="O126" t="n" s="0">
         <v/>
       </c>
       <c r="P126" t="s" s="0">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="Q126" t="n" s="0">
-        <v>4.570000</v>
+        <v>3.460000</v>
       </c>
       <c r="R126" t="n" s="0">
-        <v>73.000000</v>
+        <v>75.540000</v>
       </c>
       <c r="S126" t="n" s="0">
-        <v>19.710000</v>
+        <v>20.940000</v>
       </c>
       <c r="T126" t="n" s="0">
-        <v>7.570000</v>
+        <v>8.520000</v>
       </c>
       <c r="U126" t="n" s="0">
-        <v>16.140000</v>
+        <v>16.700000</v>
       </c>
       <c r="V126" t="n" s="0">
-        <v>5.430000</v>
+        <v>5.200000</v>
       </c>
       <c r="W126" t="n" s="0">
-        <v>13.000000</v>
+        <v>13.720000</v>
       </c>
       <c r="X126" t="n" s="0">
-        <v>35.860000</v>
+        <v>37.650000</v>
       </c>
       <c r="Y126" t="n" s="0">
-        <v>69.570000</v>
+        <v>74.730000</v>
       </c>
       <c r="Z126" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.093000</v>
       </c>
       <c r="AA126" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.037000</v>
       </c>
       <c r="AB126" t="n" s="0">
-        <v>32.860000</v>
+        <v>2.300000</v>
       </c>
       <c r="AC126" t="n" s="0">
-        <v>1.830000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B127" t="n" s="0">
-        <v>2.950000</v>
+        <v>4.710000</v>
       </c>
       <c r="C127" t="n" s="0">
-        <v>85.100000</v>
+        <v>73.000000</v>
       </c>
       <c r="D127" t="n" s="0">
-        <v>13.750000</v>
+        <v>20.000000</v>
       </c>
       <c r="E127" t="n" s="0">
-        <v>5.550000</v>
+        <v>7.570000</v>
       </c>
       <c r="F127" t="n" s="0">
-        <v>12.100000</v>
+        <v>17.140000</v>
       </c>
       <c r="G127" t="n" s="0">
-        <v>3.250000</v>
+        <v>5.430000</v>
       </c>
       <c r="H127" t="n" s="0">
-        <v>8.800000</v>
+        <v>13.000000</v>
       </c>
       <c r="I127" t="n" s="0">
-        <v>25.850000</v>
+        <v>37.140000</v>
       </c>
       <c r="J127" t="n" s="0">
-        <v>46.450000</v>
+        <v>70.010000</v>
       </c>
       <c r="K127" t="n" s="0">
-        <v>0.450000</v>
+        <v>1.290000</v>
       </c>
       <c r="L127" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.071000</v>
       </c>
       <c r="M127" t="n" s="0">
-        <v>14.920000</v>
+        <v>32.860000</v>
       </c>
       <c r="N127" t="n" s="0">
-        <v>0.830000</v>
+        <v>1.830000</v>
       </c>
       <c r="O127" t="n" s="0">
         <v/>
       </c>
       <c r="P127" t="s" s="0">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="Q127" t="n" s="0">
-        <v>2.900000</v>
+        <v>4.570000</v>
       </c>
       <c r="R127" t="n" s="0">
-        <v>85.150000</v>
+        <v>73.000000</v>
       </c>
       <c r="S127" t="n" s="0">
-        <v>13.650000</v>
+        <v>19.710000</v>
       </c>
       <c r="T127" t="n" s="0">
-        <v>5.550000</v>
+        <v>7.570000</v>
       </c>
       <c r="U127" t="n" s="0">
-        <v>11.850000</v>
+        <v>16.140000</v>
       </c>
       <c r="V127" t="n" s="0">
-        <v>3.150000</v>
+        <v>5.430000</v>
       </c>
       <c r="W127" t="n" s="0">
-        <v>8.700000</v>
+        <v>13.000000</v>
       </c>
       <c r="X127" t="n" s="0">
-        <v>25.500000</v>
+        <v>35.860000</v>
       </c>
       <c r="Y127" t="n" s="0">
-        <v>45.640000</v>
+        <v>69.570000</v>
       </c>
       <c r="Z127" t="n" s="0">
-        <v>0.450000</v>
+        <v>1.290000</v>
       </c>
       <c r="AA127" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.071000</v>
       </c>
       <c r="AB127" t="n" s="0">
-        <v>14.920000</v>
+        <v>32.860000</v>
       </c>
       <c r="AC127" t="n" s="0">
-        <v>0.830000</v>
+        <v>1.830000</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B128" t="n" s="0">
-        <v>2.100000</v>
+        <v>2.950000</v>
       </c>
       <c r="C128" t="n" s="0">
-        <v>82.620000</v>
+        <v>85.100000</v>
       </c>
       <c r="D128" t="n" s="0">
-        <v>8.100000</v>
+        <v>13.750000</v>
       </c>
       <c r="E128" t="n" s="0">
-        <v>4.480000</v>
+        <v>5.550000</v>
       </c>
       <c r="F128" t="n" s="0">
-        <v>5.900000</v>
+        <v>12.100000</v>
       </c>
       <c r="G128" t="n" s="0">
+        <v>3.250000</v>
+      </c>
+      <c r="H128" t="n" s="0">
+        <v>8.800000</v>
+      </c>
+      <c r="I128" t="n" s="0">
+        <v>25.850000</v>
+      </c>
+      <c r="J128" t="n" s="0">
+        <v>46.450000</v>
+      </c>
+      <c r="K128" t="n" s="0">
+        <v>0.450000</v>
+      </c>
+      <c r="L128" t="n" s="0">
+        <v>0.022000</v>
+      </c>
+      <c r="M128" t="n" s="0">
+        <v>14.920000</v>
+      </c>
+      <c r="N128" t="n" s="0">
+        <v>0.830000</v>
+      </c>
+      <c r="O128" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P128" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="Q128" t="n" s="0">
         <v>2.900000</v>
       </c>
-      <c r="H128" t="n" s="0">
-        <v>7.380000</v>
-      </c>
-      <c r="I128" t="n" s="0">
-        <v>14.000000</v>
-      </c>
-      <c r="J128" t="n" s="0">
-        <v>30.510000</v>
-      </c>
-      <c r="K128" t="n" s="0">
-        <v>1.190000</v>
-      </c>
-      <c r="L128" t="n" s="0">
-        <v>0.170000</v>
-      </c>
-      <c r="M128" t="n" s="0">
-        <v>30.990000</v>
-      </c>
-      <c r="N128" t="n" s="0">
-        <v>1.720000</v>
-      </c>
-      <c r="O128" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P128" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="Q128" t="n" s="0">
-        <v>2.140000</v>
-      </c>
       <c r="R128" t="n" s="0">
-        <v>82.570000</v>
+        <v>85.150000</v>
       </c>
       <c r="S128" t="n" s="0">
-        <v>8.140000</v>
+        <v>13.650000</v>
       </c>
       <c r="T128" t="n" s="0">
-        <v>4.520000</v>
+        <v>5.550000</v>
       </c>
       <c r="U128" t="n" s="0">
-        <v>5.950000</v>
+        <v>11.850000</v>
       </c>
       <c r="V128" t="n" s="0">
-        <v>2.950000</v>
+        <v>3.150000</v>
       </c>
       <c r="W128" t="n" s="0">
-        <v>7.480000</v>
+        <v>8.700000</v>
       </c>
       <c r="X128" t="n" s="0">
-        <v>14.100000</v>
+        <v>25.500000</v>
       </c>
       <c r="Y128" t="n" s="0">
-        <v>31.040000</v>
+        <v>45.640000</v>
       </c>
       <c r="Z128" t="n" s="0">
-        <v>1.190000</v>
+        <v>0.450000</v>
       </c>
       <c r="AA128" t="n" s="0">
-        <v>0.170000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB128" t="n" s="0">
-        <v>30.990000</v>
+        <v>14.920000</v>
       </c>
       <c r="AC128" t="n" s="0">
-        <v>1.720000</v>
+        <v>0.830000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B129" t="n" s="0">
-        <v>2.060000</v>
+        <v>2.100000</v>
       </c>
       <c r="C129" t="n" s="0">
-        <v>80.300000</v>
+        <v>82.620000</v>
       </c>
       <c r="D129" t="n" s="0">
-        <v>10.130000</v>
+        <v>8.100000</v>
       </c>
       <c r="E129" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.480000</v>
       </c>
       <c r="F129" t="n" s="0">
-        <v>7.160000</v>
+        <v>5.900000</v>
       </c>
       <c r="G129" t="n" s="0">
-        <v>3.040000</v>
+        <v>2.900000</v>
       </c>
       <c r="H129" t="n" s="0">
-        <v>6.800000</v>
+        <v>7.380000</v>
       </c>
       <c r="I129" t="n" s="0">
-        <v>17.290000</v>
+        <v>14.000000</v>
       </c>
       <c r="J129" t="n" s="0">
-        <v>29.440000</v>
+        <v>30.510000</v>
       </c>
       <c r="K129" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.190000</v>
       </c>
       <c r="L129" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.170000</v>
       </c>
       <c r="M129" t="n" s="0">
-        <v>0.087000</v>
+        <v>30.990000</v>
       </c>
       <c r="N129" t="n" s="0">
-        <v>0.004800</v>
+        <v>1.720000</v>
       </c>
       <c r="O129" t="n" s="0">
         <v/>
       </c>
       <c r="P129" t="s" s="0">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="Q129" t="n" s="0">
-        <v>2.070000</v>
+        <v>2.140000</v>
       </c>
       <c r="R129" t="n" s="0">
-        <v>80.260000</v>
+        <v>82.570000</v>
       </c>
       <c r="S129" t="n" s="0">
-        <v>10.190000</v>
+        <v>8.140000</v>
       </c>
       <c r="T129" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.520000</v>
       </c>
       <c r="U129" t="n" s="0">
-        <v>7.190000</v>
+        <v>5.950000</v>
       </c>
       <c r="V129" t="n" s="0">
-        <v>3.060000</v>
+        <v>2.950000</v>
       </c>
       <c r="W129" t="n" s="0">
-        <v>6.810000</v>
+        <v>7.480000</v>
       </c>
       <c r="X129" t="n" s="0">
-        <v>17.380000</v>
+        <v>14.100000</v>
       </c>
       <c r="Y129" t="n" s="0">
-        <v>29.540000</v>
+        <v>31.040000</v>
       </c>
       <c r="Z129" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.190000</v>
       </c>
       <c r="AA129" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.170000</v>
       </c>
       <c r="AB129" t="n" s="0">
-        <v>0.087000</v>
+        <v>30.990000</v>
       </c>
       <c r="AC129" t="n" s="0">
-        <v>0.004800</v>
+        <v>1.720000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B130" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.060000</v>
       </c>
       <c r="C130" t="n" s="0">
-        <v>78.860000</v>
+        <v>80.300000</v>
       </c>
       <c r="D130" t="n" s="0">
-        <v>16.000000</v>
+        <v>10.130000</v>
       </c>
       <c r="E130" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.750000</v>
       </c>
       <c r="F130" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.160000</v>
       </c>
       <c r="G130" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.040000</v>
       </c>
       <c r="H130" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.800000</v>
       </c>
       <c r="I130" t="n" s="0">
-        <v>27.570000</v>
+        <v>17.290000</v>
       </c>
       <c r="J130" t="n" s="0">
-        <v>48.540000</v>
+        <v>29.440000</v>
       </c>
       <c r="K130" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="L130" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="M130" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="N130" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
       <c r="O130" t="n" s="0">
         <v/>
       </c>
       <c r="P130" t="s" s="0">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="Q130" t="n" s="0">
-        <v>5.290000</v>
+        <v>2.070000</v>
       </c>
       <c r="R130" t="n" s="0">
-        <v>78.710000</v>
+        <v>80.260000</v>
       </c>
       <c r="S130" t="n" s="0">
-        <v>17.710000</v>
+        <v>10.190000</v>
       </c>
       <c r="T130" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.750000</v>
       </c>
       <c r="U130" t="n" s="0">
-        <v>13.290000</v>
+        <v>7.190000</v>
       </c>
       <c r="V130" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.060000</v>
       </c>
       <c r="W130" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.810000</v>
       </c>
       <c r="X130" t="n" s="0">
-        <v>31.000000</v>
+        <v>17.380000</v>
       </c>
       <c r="Y130" t="n" s="0">
-        <v>49.530000</v>
+        <v>29.540000</v>
       </c>
       <c r="Z130" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="AA130" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="AB130" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="AC130" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B131" t="n" s="0">
-        <v>2.710000</v>
+        <v>5.000000</v>
       </c>
       <c r="C131" t="n" s="0">
-        <v>77.860000</v>
+        <v>78.860000</v>
       </c>
       <c r="D131" t="n" s="0">
-        <v>10.570000</v>
+        <v>16.000000</v>
       </c>
       <c r="E131" t="n" s="0">
-        <v>5.000000</v>
+        <v>6.290000</v>
       </c>
       <c r="F131" t="n" s="0">
-        <v>8.570000</v>
+        <v>11.570000</v>
       </c>
       <c r="G131" t="n" s="0">
+        <v>3.570000</v>
+      </c>
+      <c r="H131" t="n" s="0">
+        <v>9.860000</v>
+      </c>
+      <c r="I131" t="n" s="0">
+        <v>27.570000</v>
+      </c>
+      <c r="J131" t="n" s="0">
+        <v>48.540000</v>
+      </c>
+      <c r="K131" t="n" s="0">
+        <v>0.430000</v>
+      </c>
+      <c r="L131" t="n" s="0">
+        <v>0.210000</v>
+      </c>
+      <c r="M131" t="n" s="0">
+        <v>10.380000</v>
+      </c>
+      <c r="N131" t="n" s="0">
+        <v>0.580000</v>
+      </c>
+      <c r="O131" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P131" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="Q131" t="n" s="0">
         <v>5.290000</v>
       </c>
-      <c r="H131" t="n" s="0">
-        <v>10.290000</v>
-      </c>
-      <c r="I131" t="n" s="0">
-        <v>19.140000</v>
-      </c>
-      <c r="J131" t="n" s="0">
-        <v>45.080000</v>
-      </c>
-      <c r="K131" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="L131" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="M131" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="N131" t="n" s="0">
-        <v>0.000000</v>
-      </c>
-      <c r="O131" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P131" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="Q131" t="n" s="0">
-        <v>2.860000</v>
-      </c>
       <c r="R131" t="n" s="0">
-        <v>77.430000</v>
+        <v>78.710000</v>
       </c>
       <c r="S131" t="n" s="0">
-        <v>10.710000</v>
+        <v>17.710000</v>
       </c>
       <c r="T131" t="n" s="0">
-        <v>5.140000</v>
+        <v>6.290000</v>
       </c>
       <c r="U131" t="n" s="0">
-        <v>9.140000</v>
+        <v>13.290000</v>
       </c>
       <c r="V131" t="n" s="0">
-        <v>5.290000</v>
+        <v>3.570000</v>
       </c>
       <c r="W131" t="n" s="0">
-        <v>10.430000</v>
+        <v>9.860000</v>
       </c>
       <c r="X131" t="n" s="0">
-        <v>19.860000</v>
+        <v>31.000000</v>
       </c>
       <c r="Y131" t="n" s="0">
-        <v>46.270000</v>
+        <v>49.530000</v>
       </c>
       <c r="Z131" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.430000</v>
       </c>
       <c r="AA131" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
       <c r="AB131" t="n" s="0">
-        <v>0.000000</v>
+        <v>10.380000</v>
       </c>
       <c r="AC131" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B132" t="n" s="0">
-        <v>6.000000</v>
+        <v>2.710000</v>
       </c>
       <c r="C132" t="n" s="0">
-        <v>65.240000</v>
+        <v>77.860000</v>
       </c>
       <c r="D132" t="n" s="0">
-        <v>51.360000</v>
+        <v>10.570000</v>
       </c>
       <c r="E132" t="n" s="0">
-        <v>11.980000</v>
+        <v>5.000000</v>
       </c>
       <c r="F132" t="n" s="0">
-        <v>44.050000</v>
+        <v>8.570000</v>
       </c>
       <c r="G132" t="n" s="0">
-        <v>8.380000</v>
+        <v>5.290000</v>
       </c>
       <c r="H132" t="n" s="0">
-        <v>20.360000</v>
+        <v>10.290000</v>
       </c>
       <c r="I132" t="n" s="0">
-        <v>95.400000</v>
+        <v>19.140000</v>
       </c>
       <c r="J132" t="n" s="0">
-        <v>133.090000</v>
+        <v>45.080000</v>
       </c>
       <c r="K132" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="L132" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="M132" t="n" s="0">
-        <v>3.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="N132" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.000000</v>
       </c>
       <c r="O132" t="n" s="0">
         <v/>
       </c>
       <c r="P132" t="s" s="0">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="Q132" t="n" s="0">
-        <v>6.020000</v>
+        <v>2.860000</v>
       </c>
       <c r="R132" t="n" s="0">
-        <v>65.210000</v>
+        <v>77.430000</v>
       </c>
       <c r="S132" t="n" s="0">
-        <v>51.380000</v>
+        <v>10.710000</v>
       </c>
       <c r="T132" t="n" s="0">
-        <v>11.980000</v>
+        <v>5.140000</v>
       </c>
       <c r="U132" t="n" s="0">
-        <v>44.070000</v>
+        <v>9.140000</v>
       </c>
       <c r="V132" t="n" s="0">
-        <v>8.380000</v>
+        <v>5.290000</v>
       </c>
       <c r="W132" t="n" s="0">
-        <v>20.360000</v>
+        <v>10.430000</v>
       </c>
       <c r="X132" t="n" s="0">
-        <v>95.450000</v>
+        <v>19.860000</v>
       </c>
       <c r="Y132" t="n" s="0">
-        <v>133.120000</v>
+        <v>46.270000</v>
       </c>
       <c r="Z132" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA132" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB132" t="n" s="0">
-        <v>3.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC132" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B133" t="n" s="0">
         <v>6.000000</v>
@@ -12626,34 +12713,34 @@
         <v/>
       </c>
       <c r="P133" t="s" s="0">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="Q133" t="n" s="0">
         <v>6.020000</v>
       </c>
       <c r="R133" t="n" s="0">
-        <v>65.260000</v>
+        <v>65.210000</v>
       </c>
       <c r="S133" t="n" s="0">
-        <v>51.330000</v>
+        <v>51.380000</v>
       </c>
       <c r="T133" t="n" s="0">
-        <v>12.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="U133" t="n" s="0">
-        <v>44.020000</v>
+        <v>44.070000</v>
       </c>
       <c r="V133" t="n" s="0">
-        <v>8.330000</v>
+        <v>8.380000</v>
       </c>
       <c r="W133" t="n" s="0">
-        <v>20.330000</v>
+        <v>20.360000</v>
       </c>
       <c r="X133" t="n" s="0">
-        <v>95.360000</v>
+        <v>95.450000</v>
       </c>
       <c r="Y133" t="n" s="0">
-        <v>132.900000</v>
+        <v>133.120000</v>
       </c>
       <c r="Z133" t="n" s="0">
         <v>0.290000</v>
@@ -12670,447 +12757,447 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B134" t="n" s="0">
-        <v>3.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C134" t="n" s="0">
-        <v>75.110000</v>
+        <v>65.240000</v>
       </c>
       <c r="D134" t="n" s="0">
-        <v>11.330000</v>
+        <v>51.360000</v>
       </c>
       <c r="E134" t="n" s="0">
-        <v>6.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="F134" t="n" s="0">
-        <v>10.110000</v>
+        <v>44.050000</v>
       </c>
       <c r="G134" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.380000</v>
       </c>
       <c r="H134" t="n" s="0">
-        <v>11.110000</v>
+        <v>20.360000</v>
       </c>
       <c r="I134" t="n" s="0">
-        <v>21.440000</v>
+        <v>95.400000</v>
       </c>
       <c r="J134" t="n" s="0">
-        <v>51.120000</v>
+        <v>133.090000</v>
       </c>
       <c r="K134" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="L134" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="M134" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="N134" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
       <c r="O134" t="n" s="0">
         <v/>
       </c>
       <c r="P134" t="s" s="0">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="Q134" t="n" s="0">
-        <v>3.110000</v>
+        <v>6.020000</v>
       </c>
       <c r="R134" t="n" s="0">
-        <v>74.890000</v>
+        <v>65.260000</v>
       </c>
       <c r="S134" t="n" s="0">
-        <v>11.330000</v>
+        <v>51.330000</v>
       </c>
       <c r="T134" t="n" s="0">
-        <v>6.110000</v>
+        <v>12.000000</v>
       </c>
       <c r="U134" t="n" s="0">
-        <v>10.220000</v>
+        <v>44.020000</v>
       </c>
       <c r="V134" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.330000</v>
       </c>
       <c r="W134" t="n" s="0">
-        <v>11.220000</v>
+        <v>20.330000</v>
       </c>
       <c r="X134" t="n" s="0">
-        <v>21.560000</v>
+        <v>95.360000</v>
       </c>
       <c r="Y134" t="n" s="0">
-        <v>51.760000</v>
+        <v>132.900000</v>
       </c>
       <c r="Z134" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="AA134" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB134" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="AC134" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B135" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.000000</v>
       </c>
       <c r="C135" t="n" s="0">
-        <v>82.860000</v>
+        <v>75.110000</v>
       </c>
       <c r="D135" t="n" s="0">
-        <v>14.860000</v>
+        <v>11.330000</v>
       </c>
       <c r="E135" t="n" s="0">
-        <v>6.430000</v>
+        <v>6.000000</v>
       </c>
       <c r="F135" t="n" s="0">
-        <v>7.710000</v>
+        <v>10.110000</v>
       </c>
       <c r="G135" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.110000</v>
       </c>
       <c r="H135" t="n" s="0">
-        <v>10.000000</v>
+        <v>11.110000</v>
       </c>
       <c r="I135" t="n" s="0">
-        <v>22.570000</v>
+        <v>21.440000</v>
       </c>
       <c r="J135" t="n" s="0">
-        <v>50.990000</v>
+        <v>51.120000</v>
       </c>
       <c r="K135" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L135" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="M135" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="N135" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="O135" t="n" s="0">
         <v/>
       </c>
       <c r="P135" t="s" s="0">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="Q135" t="n" s="0">
-        <v>2.710000</v>
+        <v>3.110000</v>
       </c>
       <c r="R135" t="n" s="0">
-        <v>82.860000</v>
+        <v>74.890000</v>
       </c>
       <c r="S135" t="n" s="0">
-        <v>14.860000</v>
+        <v>11.330000</v>
       </c>
       <c r="T135" t="n" s="0">
-        <v>6.570000</v>
+        <v>6.110000</v>
       </c>
       <c r="U135" t="n" s="0">
-        <v>7.860000</v>
+        <v>10.220000</v>
       </c>
       <c r="V135" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.110000</v>
       </c>
       <c r="W135" t="n" s="0">
-        <v>10.140000</v>
+        <v>11.220000</v>
       </c>
       <c r="X135" t="n" s="0">
-        <v>22.710000</v>
+        <v>21.560000</v>
       </c>
       <c r="Y135" t="n" s="0">
-        <v>52.020000</v>
+        <v>51.760000</v>
       </c>
       <c r="Z135" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA135" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB135" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC135" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B136" t="n" s="0">
-        <v>2.190000</v>
+        <v>2.570000</v>
       </c>
       <c r="C136" t="n" s="0">
-        <v>85.000000</v>
+        <v>82.860000</v>
       </c>
       <c r="D136" t="n" s="0">
-        <v>9.130000</v>
+        <v>14.860000</v>
       </c>
       <c r="E136" t="n" s="0">
-        <v>3.970000</v>
+        <v>6.430000</v>
       </c>
       <c r="F136" t="n" s="0">
-        <v>8.190000</v>
+        <v>7.710000</v>
       </c>
       <c r="G136" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.570000</v>
       </c>
       <c r="H136" t="n" s="0">
-        <v>7.130000</v>
+        <v>10.000000</v>
       </c>
       <c r="I136" t="n" s="0">
-        <v>17.320000</v>
+        <v>22.570000</v>
       </c>
       <c r="J136" t="n" s="0">
-        <v>31.120000</v>
+        <v>50.990000</v>
       </c>
       <c r="K136" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="L136" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="M136" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="N136" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
       <c r="O136" t="n" s="0">
         <v/>
       </c>
       <c r="P136" t="s" s="0">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="Q136" t="n" s="0">
-        <v>2.290000</v>
+        <v>2.710000</v>
       </c>
       <c r="R136" t="n" s="0">
-        <v>84.940000</v>
+        <v>82.860000</v>
       </c>
       <c r="S136" t="n" s="0">
-        <v>9.320000</v>
+        <v>14.860000</v>
       </c>
       <c r="T136" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.570000</v>
       </c>
       <c r="U136" t="n" s="0">
-        <v>8.520000</v>
+        <v>7.860000</v>
       </c>
       <c r="V136" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.570000</v>
       </c>
       <c r="W136" t="n" s="0">
-        <v>7.190000</v>
+        <v>10.140000</v>
       </c>
       <c r="X136" t="n" s="0">
-        <v>17.840000</v>
+        <v>22.710000</v>
       </c>
       <c r="Y136" t="n" s="0">
-        <v>31.720000</v>
+        <v>52.020000</v>
       </c>
       <c r="Z136" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA136" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="AB136" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="AC136" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B137" t="n" s="0">
+        <v>2.190000</v>
+      </c>
+      <c r="C137" t="n" s="0">
+        <v>85.000000</v>
+      </c>
+      <c r="D137" t="n" s="0">
+        <v>9.130000</v>
+      </c>
+      <c r="E137" t="n" s="0">
+        <v>3.970000</v>
+      </c>
+      <c r="F137" t="n" s="0">
+        <v>8.190000</v>
+      </c>
+      <c r="G137" t="n" s="0">
+        <v>3.160000</v>
+      </c>
+      <c r="H137" t="n" s="0">
+        <v>7.130000</v>
+      </c>
+      <c r="I137" t="n" s="0">
+        <v>17.320000</v>
+      </c>
+      <c r="J137" t="n" s="0">
+        <v>31.120000</v>
+      </c>
+      <c r="K137" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="L137" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="M137" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="N137" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+      <c r="O137" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P137" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="Q137" t="n" s="0">
+        <v>2.290000</v>
+      </c>
+      <c r="R137" t="n" s="0">
+        <v>84.940000</v>
+      </c>
+      <c r="S137" t="n" s="0">
+        <v>9.320000</v>
+      </c>
+      <c r="T137" t="n" s="0">
+        <v>4.000000</v>
+      </c>
+      <c r="U137" t="n" s="0">
+        <v>8.520000</v>
+      </c>
+      <c r="V137" t="n" s="0">
+        <v>3.190000</v>
+      </c>
+      <c r="W137" t="n" s="0">
+        <v>7.190000</v>
+      </c>
+      <c r="X137" t="n" s="0">
+        <v>17.840000</v>
+      </c>
+      <c r="Y137" t="n" s="0">
+        <v>31.720000</v>
+      </c>
+      <c r="Z137" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="AA137" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="AB137" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="AC137" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B138" t="n" s="0">
         <v>7.250000</v>
       </c>
-      <c r="C137" t="n" s="0">
+      <c r="C138" t="n" s="0">
         <v>61.250000</v>
       </c>
-      <c r="D137" t="n" s="0">
+      <c r="D138" t="n" s="0">
         <v>61.750000</v>
       </c>
-      <c r="E137" t="n" s="0">
+      <c r="E138" t="n" s="0">
         <v>14.250000</v>
       </c>
-      <c r="F137" t="n" s="0">
+      <c r="F138" t="n" s="0">
         <v>42.500000</v>
       </c>
-      <c r="G137" t="n" s="0">
+      <c r="G138" t="n" s="0">
         <v>8.250000</v>
       </c>
-      <c r="H137" t="n" s="0">
+      <c r="H138" t="n" s="0">
         <v>22.500000</v>
       </c>
-      <c r="I137" t="n" s="0">
+      <c r="I138" t="n" s="0">
         <v>104.250000</v>
       </c>
-      <c r="J137" t="n" s="0">
+      <c r="J138" t="n" s="0">
         <v>151.160000</v>
       </c>
-      <c r="K137" t="n" s="0">
+      <c r="K138" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="L137" t="n" s="0">
+      <c r="L138" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="M137" t="n" s="0">
+      <c r="M138" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="N137" t="n" s="0">
+      <c r="N138" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="O137" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P137" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="Q137" t="n" s="0">
+      <c r="O138" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P138" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="Q138" t="n" s="0">
         <v>6.250000</v>
       </c>
-      <c r="R137" t="n" s="0">
+      <c r="R138" t="n" s="0">
         <v>63.250000</v>
       </c>
-      <c r="S137" t="n" s="0">
+      <c r="S138" t="n" s="0">
         <v>57.500000</v>
       </c>
-      <c r="T137" t="n" s="0">
+      <c r="T138" t="n" s="0">
         <v>13.750000</v>
       </c>
-      <c r="U137" t="n" s="0">
+      <c r="U138" t="n" s="0">
         <v>38.500000</v>
       </c>
-      <c r="V137" t="n" s="0">
+      <c r="V138" t="n" s="0">
         <v>7.500000</v>
       </c>
-      <c r="W137" t="n" s="0">
+      <c r="W138" t="n" s="0">
         <v>21.250000</v>
       </c>
-      <c r="X137" t="n" s="0">
+      <c r="X138" t="n" s="0">
         <v>96.000000</v>
       </c>
-      <c r="Y137" t="n" s="0">
+      <c r="Y138" t="n" s="0">
         <v>139.520000</v>
       </c>
-      <c r="Z137" t="n" s="0">
+      <c r="Z138" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AA137" t="n" s="0">
+      <c r="AA138" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AB137" t="n" s="0">
+      <c r="AB138" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AC137" t="n" s="0">
+      <c r="AC138" t="n" s="0">
         <v>0.000000</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="B138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="C138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="D138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="E138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="F138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="G138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="H138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="I138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="J138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="K138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="L138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="M138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="N138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="O138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Q138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="R138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="S138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="T138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="U138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="V138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="W138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="X138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Y138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Z138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AA138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AB138" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AC138" t="n" s="0">
-        <v/>
       </c>
     </row>
     <row r="139">
@@ -29134,1192 +29221,1192 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="0">
-        <v>96</v>
+      <c r="A319" t="n" s="0">
+        <v/>
       </c>
       <c r="B319" t="n" s="0">
-        <v>7.000000</v>
+        <v/>
       </c>
       <c r="C319" t="n" s="0">
-        <v>62.100000</v>
+        <v/>
       </c>
       <c r="D319" t="n" s="0">
-        <v>67.800000</v>
+        <v/>
       </c>
       <c r="E319" t="n" s="0">
-        <v>12.300000</v>
+        <v/>
       </c>
       <c r="F319" t="n" s="0">
-        <v>30.100000</v>
+        <v/>
       </c>
       <c r="G319" t="n" s="0">
-        <v>3.800000</v>
+        <v/>
       </c>
       <c r="H319" t="n" s="0">
-        <v>16.100000</v>
+        <v/>
       </c>
       <c r="I319" t="n" s="0">
-        <v>97.900000</v>
+        <v/>
       </c>
       <c r="J319" t="n" s="0">
-        <v>109.000000</v>
+        <v/>
       </c>
       <c r="K319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O319" t="n" s="0">
         <v/>
       </c>
-      <c r="P319" t="s" s="0">
-        <v>97</v>
+      <c r="P319" t="n" s="0">
+        <v/>
       </c>
       <c r="Q319" t="n" s="0">
-        <v>7.100000</v>
+        <v/>
       </c>
       <c r="R319" t="n" s="0">
-        <v>62.100000</v>
+        <v/>
       </c>
       <c r="S319" t="n" s="0">
-        <v>67.900000</v>
+        <v/>
       </c>
       <c r="T319" t="n" s="0">
-        <v>12.300000</v>
+        <v/>
       </c>
       <c r="U319" t="n" s="0">
-        <v>30.200000</v>
+        <v/>
       </c>
       <c r="V319" t="n" s="0">
-        <v>3.800000</v>
+        <v/>
       </c>
       <c r="W319" t="n" s="0">
-        <v>16.100000</v>
+        <v/>
       </c>
       <c r="X319" t="n" s="0">
-        <v>98.100000</v>
+        <v/>
       </c>
       <c r="Y319" t="n" s="0">
-        <v>109.030000</v>
+        <v/>
       </c>
       <c r="Z319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC319" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B320" t="n" s="0">
-        <v>2.550000</v>
+        <v>7.000000</v>
       </c>
       <c r="C320" t="n" s="0">
-        <v>80.410000</v>
+        <v>62.100000</v>
       </c>
       <c r="D320" t="n" s="0">
-        <v>10.840000</v>
+        <v>67.800000</v>
       </c>
       <c r="E320" t="n" s="0">
-        <v>5.390000</v>
+        <v>12.300000</v>
       </c>
       <c r="F320" t="n" s="0">
-        <v>8.160000</v>
+        <v>30.100000</v>
       </c>
       <c r="G320" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.800000</v>
       </c>
       <c r="H320" t="n" s="0">
-        <v>8.550000</v>
+        <v>16.100000</v>
       </c>
       <c r="I320" t="n" s="0">
-        <v>19.000000</v>
+        <v>97.900000</v>
       </c>
       <c r="J320" t="n" s="0">
-        <v>38.680000</v>
+        <v>109.000000</v>
       </c>
       <c r="K320" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L320" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.000000</v>
       </c>
       <c r="M320" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="N320" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="O320" t="n" s="0">
         <v/>
       </c>
       <c r="P320" t="s" s="0">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q320" t="n" s="0">
-        <v>2.570000</v>
+        <v>7.100000</v>
       </c>
       <c r="R320" t="n" s="0">
-        <v>80.430000</v>
+        <v>62.100000</v>
       </c>
       <c r="S320" t="n" s="0">
-        <v>10.800000</v>
+        <v>67.900000</v>
       </c>
       <c r="T320" t="n" s="0">
-        <v>5.430000</v>
+        <v>12.300000</v>
       </c>
       <c r="U320" t="n" s="0">
-        <v>8.270000</v>
+        <v>30.200000</v>
       </c>
       <c r="V320" t="n" s="0">
-        <v>3.180000</v>
+        <v>3.800000</v>
       </c>
       <c r="W320" t="n" s="0">
-        <v>8.610000</v>
+        <v>16.100000</v>
       </c>
       <c r="X320" t="n" s="0">
-        <v>19.070000</v>
+        <v>98.100000</v>
       </c>
       <c r="Y320" t="n" s="0">
-        <v>38.980000</v>
+        <v>109.030000</v>
       </c>
       <c r="Z320" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA320" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB320" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC320" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B321" t="n" s="0">
-        <v>4.910000</v>
+        <v>2.550000</v>
       </c>
       <c r="C321" t="n" s="0">
-        <v>75.360000</v>
+        <v>80.410000</v>
       </c>
       <c r="D321" t="n" s="0">
-        <v>43.180000</v>
+        <v>10.840000</v>
       </c>
       <c r="E321" t="n" s="0">
-        <v>10.730000</v>
+        <v>5.390000</v>
       </c>
       <c r="F321" t="n" s="0">
-        <v>25.550000</v>
+        <v>8.160000</v>
       </c>
       <c r="G321" t="n" s="0">
-        <v>4.270000</v>
+        <v>3.160000</v>
       </c>
       <c r="H321" t="n" s="0">
-        <v>15.000000</v>
+        <v>8.550000</v>
       </c>
       <c r="I321" t="n" s="0">
-        <v>68.730000</v>
+        <v>19.000000</v>
       </c>
       <c r="J321" t="n" s="0">
-        <v>104.340000</v>
+        <v>38.680000</v>
       </c>
       <c r="K321" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.140000</v>
       </c>
       <c r="L321" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.034000</v>
       </c>
       <c r="M321" t="n" s="0">
-        <v>2.310000</v>
+        <v>2.500000</v>
       </c>
       <c r="N321" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="O321" t="n" s="0">
         <v/>
       </c>
       <c r="P321" t="s" s="0">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Q321" t="n" s="0">
-        <v>4.640000</v>
+        <v>2.570000</v>
       </c>
       <c r="R321" t="n" s="0">
-        <v>75.360000</v>
+        <v>80.430000</v>
       </c>
       <c r="S321" t="n" s="0">
-        <v>42.090000</v>
+        <v>10.800000</v>
       </c>
       <c r="T321" t="n" s="0">
-        <v>10.730000</v>
+        <v>5.430000</v>
       </c>
       <c r="U321" t="n" s="0">
-        <v>25.000000</v>
+        <v>8.270000</v>
       </c>
       <c r="V321" t="n" s="0">
-        <v>4.090000</v>
+        <v>3.180000</v>
       </c>
       <c r="W321" t="n" s="0">
-        <v>14.820000</v>
+        <v>8.610000</v>
       </c>
       <c r="X321" t="n" s="0">
-        <v>67.090000</v>
+        <v>19.070000</v>
       </c>
       <c r="Y321" t="n" s="0">
-        <v>101.970000</v>
+        <v>38.980000</v>
       </c>
       <c r="Z321" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA321" t="n" s="0">
-        <v>0.091000</v>
+        <v>0.034000</v>
       </c>
       <c r="AB321" t="n" s="0">
-        <v>2.310000</v>
+        <v>2.500000</v>
       </c>
       <c r="AC321" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B322" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.910000</v>
       </c>
       <c r="C322" t="n" s="0">
-        <v>83.680000</v>
+        <v>75.360000</v>
       </c>
       <c r="D322" t="n" s="0">
-        <v>9.380000</v>
+        <v>43.180000</v>
       </c>
       <c r="E322" t="n" s="0">
-        <v>4.290000</v>
+        <v>10.730000</v>
       </c>
       <c r="F322" t="n" s="0">
-        <v>5.710000</v>
+        <v>25.550000</v>
       </c>
       <c r="G322" t="n" s="0">
-        <v>2.590000</v>
+        <v>4.270000</v>
       </c>
       <c r="H322" t="n" s="0">
-        <v>6.880000</v>
+        <v>15.000000</v>
       </c>
       <c r="I322" t="n" s="0">
-        <v>15.090000</v>
+        <v>68.730000</v>
       </c>
       <c r="J322" t="n" s="0">
-        <v>28.850000</v>
+        <v>104.340000</v>
       </c>
       <c r="K322" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="L322" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="M322" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="N322" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
       <c r="O322" t="n" s="0">
         <v/>
       </c>
       <c r="P322" t="s" s="0">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="Q322" t="n" s="0">
-        <v>2.240000</v>
+        <v>4.640000</v>
       </c>
       <c r="R322" t="n" s="0">
-        <v>83.710000</v>
+        <v>75.360000</v>
       </c>
       <c r="S322" t="n" s="0">
-        <v>9.350000</v>
+        <v>42.090000</v>
       </c>
       <c r="T322" t="n" s="0">
-        <v>4.290000</v>
+        <v>10.730000</v>
       </c>
       <c r="U322" t="n" s="0">
-        <v>5.760000</v>
+        <v>25.000000</v>
       </c>
       <c r="V322" t="n" s="0">
-        <v>2.710000</v>
+        <v>4.090000</v>
       </c>
       <c r="W322" t="n" s="0">
-        <v>7.000000</v>
+        <v>14.820000</v>
       </c>
       <c r="X322" t="n" s="0">
-        <v>15.120000</v>
+        <v>67.090000</v>
       </c>
       <c r="Y322" t="n" s="0">
-        <v>29.520000</v>
+        <v>101.970000</v>
       </c>
       <c r="Z322" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.091000</v>
       </c>
       <c r="AA322" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.091000</v>
       </c>
       <c r="AB322" t="n" s="0">
-        <v>0.830000</v>
+        <v>2.310000</v>
       </c>
       <c r="AC322" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B323" t="n" s="0">
-        <v>2.570000</v>
+        <v>2.240000</v>
       </c>
       <c r="C323" t="n" s="0">
-        <v>80.410000</v>
+        <v>83.680000</v>
       </c>
       <c r="D323" t="n" s="0">
-        <v>10.890000</v>
+        <v>9.380000</v>
       </c>
       <c r="E323" t="n" s="0">
-        <v>5.390000</v>
+        <v>4.290000</v>
       </c>
       <c r="F323" t="n" s="0">
-        <v>8.230000</v>
+        <v>5.710000</v>
       </c>
       <c r="G323" t="n" s="0">
-        <v>3.200000</v>
+        <v>2.590000</v>
       </c>
       <c r="H323" t="n" s="0">
-        <v>8.590000</v>
+        <v>6.880000</v>
       </c>
       <c r="I323" t="n" s="0">
-        <v>19.110000</v>
+        <v>15.090000</v>
       </c>
       <c r="J323" t="n" s="0">
-        <v>39.010000</v>
+        <v>28.850000</v>
       </c>
       <c r="K323" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.059000</v>
       </c>
       <c r="L323" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.015000</v>
       </c>
       <c r="M323" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.830000</v>
       </c>
       <c r="N323" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.046000</v>
       </c>
       <c r="O323" t="n" s="0">
         <v/>
       </c>
       <c r="P323" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="Q323" t="n" s="0">
-        <v>2.570000</v>
+        <v>2.240000</v>
       </c>
       <c r="R323" t="n" s="0">
-        <v>80.390000</v>
+        <v>83.710000</v>
       </c>
       <c r="S323" t="n" s="0">
-        <v>10.840000</v>
+        <v>9.350000</v>
       </c>
       <c r="T323" t="n" s="0">
-        <v>5.410000</v>
+        <v>4.290000</v>
       </c>
       <c r="U323" t="n" s="0">
-        <v>8.270000</v>
+        <v>5.760000</v>
       </c>
       <c r="V323" t="n" s="0">
-        <v>3.250000</v>
+        <v>2.710000</v>
       </c>
       <c r="W323" t="n" s="0">
-        <v>8.660000</v>
+        <v>7.000000</v>
       </c>
       <c r="X323" t="n" s="0">
-        <v>19.110000</v>
+        <v>15.120000</v>
       </c>
       <c r="Y323" t="n" s="0">
-        <v>39.440000</v>
+        <v>29.520000</v>
       </c>
       <c r="Z323" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.059000</v>
       </c>
       <c r="AA323" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.015000</v>
       </c>
       <c r="AB323" t="n" s="0">
-        <v>2.500000</v>
+        <v>0.830000</v>
       </c>
       <c r="AC323" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.046000</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B324" t="n" s="0">
-        <v>7.110000</v>
+        <v>2.570000</v>
       </c>
       <c r="C324" t="n" s="0">
-        <v>78.260000</v>
+        <v>80.410000</v>
       </c>
       <c r="D324" t="n" s="0">
-        <v>22.950000</v>
+        <v>10.890000</v>
       </c>
       <c r="E324" t="n" s="0">
-        <v>6.630000</v>
+        <v>5.390000</v>
       </c>
       <c r="F324" t="n" s="0">
-        <v>19.680000</v>
+        <v>8.230000</v>
       </c>
       <c r="G324" t="n" s="0">
-        <v>4.370000</v>
+        <v>3.200000</v>
       </c>
       <c r="H324" t="n" s="0">
-        <v>11.000000</v>
+        <v>8.590000</v>
       </c>
       <c r="I324" t="n" s="0">
-        <v>42.630000</v>
+        <v>19.110000</v>
       </c>
       <c r="J324" t="n" s="0">
-        <v>64.690000</v>
+        <v>39.010000</v>
       </c>
       <c r="K324" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="L324" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="M324" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.500000</v>
       </c>
       <c r="N324" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="O324" t="n" s="0">
         <v/>
       </c>
       <c r="P324" t="s" s="0">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="Q324" t="n" s="0">
-        <v>7.050000</v>
+        <v>2.570000</v>
       </c>
       <c r="R324" t="n" s="0">
-        <v>78.260000</v>
+        <v>80.390000</v>
       </c>
       <c r="S324" t="n" s="0">
-        <v>22.740000</v>
+        <v>10.840000</v>
       </c>
       <c r="T324" t="n" s="0">
-        <v>6.630000</v>
+        <v>5.410000</v>
       </c>
       <c r="U324" t="n" s="0">
-        <v>19.370000</v>
+        <v>8.270000</v>
       </c>
       <c r="V324" t="n" s="0">
-        <v>4.420000</v>
+        <v>3.250000</v>
       </c>
       <c r="W324" t="n" s="0">
-        <v>11.050000</v>
+        <v>8.660000</v>
       </c>
       <c r="X324" t="n" s="0">
-        <v>42.110000</v>
+        <v>19.110000</v>
       </c>
       <c r="Y324" t="n" s="0">
-        <v>65.030000</v>
+        <v>39.440000</v>
       </c>
       <c r="Z324" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA324" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="AB324" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.500000</v>
       </c>
       <c r="AC324" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B325" t="n" s="0">
-        <v>3.760000</v>
+        <v>7.110000</v>
       </c>
       <c r="C325" t="n" s="0">
-        <v>76.240000</v>
+        <v>78.260000</v>
       </c>
       <c r="D325" t="n" s="0">
-        <v>13.120000</v>
+        <v>22.950000</v>
       </c>
       <c r="E325" t="n" s="0">
-        <v>6.760000</v>
+        <v>6.630000</v>
       </c>
       <c r="F325" t="n" s="0">
-        <v>9.280000</v>
+        <v>19.680000</v>
       </c>
       <c r="G325" t="n" s="0">
-        <v>3.480000</v>
+        <v>4.370000</v>
       </c>
       <c r="H325" t="n" s="0">
-        <v>10.240000</v>
+        <v>11.000000</v>
       </c>
       <c r="I325" t="n" s="0">
-        <v>22.400000</v>
+        <v>42.630000</v>
       </c>
       <c r="J325" t="n" s="0">
-        <v>50.170000</v>
+        <v>64.690000</v>
       </c>
       <c r="K325" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="L325" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="M325" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.000000</v>
       </c>
       <c r="N325" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
       <c r="O325" t="n" s="0">
         <v/>
       </c>
       <c r="P325" t="s" s="0">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="Q325" t="n" s="0">
-        <v>3.760000</v>
+        <v>7.050000</v>
       </c>
       <c r="R325" t="n" s="0">
-        <v>76.320000</v>
+        <v>78.260000</v>
       </c>
       <c r="S325" t="n" s="0">
-        <v>12.840000</v>
+        <v>22.740000</v>
       </c>
       <c r="T325" t="n" s="0">
-        <v>6.680000</v>
+        <v>6.630000</v>
       </c>
       <c r="U325" t="n" s="0">
-        <v>9.280000</v>
+        <v>19.370000</v>
       </c>
       <c r="V325" t="n" s="0">
-        <v>3.480000</v>
+        <v>4.420000</v>
       </c>
       <c r="W325" t="n" s="0">
-        <v>10.160000</v>
+        <v>11.050000</v>
       </c>
       <c r="X325" t="n" s="0">
-        <v>22.120000</v>
+        <v>42.110000</v>
       </c>
       <c r="Y325" t="n" s="0">
-        <v>49.440000</v>
+        <v>65.030000</v>
       </c>
       <c r="Z325" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA325" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB325" t="n" s="0">
-        <v>0.960000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC325" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B326" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="C326" t="n" s="0">
-        <v>82.860000</v>
+        <v>76.240000</v>
       </c>
       <c r="D326" t="n" s="0">
-        <v>8.920000</v>
+        <v>13.120000</v>
       </c>
       <c r="E326" t="n" s="0">
-        <v>5.650000</v>
+        <v>6.760000</v>
       </c>
       <c r="F326" t="n" s="0">
-        <v>5.760000</v>
+        <v>9.280000</v>
       </c>
       <c r="G326" t="n" s="0">
-        <v>2.030000</v>
+        <v>3.480000</v>
       </c>
       <c r="H326" t="n" s="0">
-        <v>7.680000</v>
+        <v>10.240000</v>
       </c>
       <c r="I326" t="n" s="0">
-        <v>14.680000</v>
+        <v>22.400000</v>
       </c>
       <c r="J326" t="n" s="0">
-        <v>29.950000</v>
+        <v>50.170000</v>
       </c>
       <c r="K326" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="L326" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="M326" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="N326" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
       <c r="O326" t="n" s="0">
         <v/>
       </c>
       <c r="P326" t="s" s="0">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="Q326" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.760000</v>
       </c>
       <c r="R326" t="n" s="0">
-        <v>82.890000</v>
+        <v>76.320000</v>
       </c>
       <c r="S326" t="n" s="0">
-        <v>8.920000</v>
+        <v>12.840000</v>
       </c>
       <c r="T326" t="n" s="0">
-        <v>5.620000</v>
+        <v>6.680000</v>
       </c>
       <c r="U326" t="n" s="0">
-        <v>5.760000</v>
+        <v>9.280000</v>
       </c>
       <c r="V326" t="n" s="0">
-        <v>2.050000</v>
+        <v>3.480000</v>
       </c>
       <c r="W326" t="n" s="0">
-        <v>7.680000</v>
+        <v>10.160000</v>
       </c>
       <c r="X326" t="n" s="0">
-        <v>14.680000</v>
+        <v>22.120000</v>
       </c>
       <c r="Y326" t="n" s="0">
-        <v>29.950000</v>
+        <v>49.440000</v>
       </c>
       <c r="Z326" t="n" s="0">
-        <v>0.270000</v>
+        <v>0.040000</v>
       </c>
       <c r="AA326" t="n" s="0">
-        <v>0.110000</v>
+        <v>0.040000</v>
       </c>
       <c r="AB326" t="n" s="0">
-        <v>10.430000</v>
+        <v>0.960000</v>
       </c>
       <c r="AC326" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.053000</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="B327" t="n" s="0">
-        <v>3.600000</v>
+        <v>3.190000</v>
       </c>
       <c r="C327" t="n" s="0">
-        <v>78.430000</v>
+        <v>82.860000</v>
       </c>
       <c r="D327" t="n" s="0">
-        <v>15.370000</v>
+        <v>8.920000</v>
       </c>
       <c r="E327" t="n" s="0">
-        <v>6.800000</v>
+        <v>5.650000</v>
       </c>
       <c r="F327" t="n" s="0">
-        <v>11.700000</v>
+        <v>5.760000</v>
       </c>
       <c r="G327" t="n" s="0">
-        <v>4.070000</v>
+        <v>2.030000</v>
       </c>
       <c r="H327" t="n" s="0">
-        <v>10.870000</v>
+        <v>7.680000</v>
       </c>
       <c r="I327" t="n" s="0">
-        <v>27.070000</v>
+        <v>14.680000</v>
       </c>
       <c r="J327" t="n" s="0">
-        <v>54.850000</v>
+        <v>29.950000</v>
       </c>
       <c r="K327" t="n" s="0">
-        <v>0.200000</v>
+        <v>0.270000</v>
       </c>
       <c r="L327" t="n" s="0">
-        <v>0.025000</v>
+        <v>0.110000</v>
       </c>
       <c r="M327" t="n" s="0">
-        <v>9.380000</v>
+        <v>10.430000</v>
       </c>
       <c r="N327" t="n" s="0">
-        <v>0.520000</v>
+        <v>0.580000</v>
       </c>
       <c r="O327" t="n" s="0">
         <v/>
       </c>
       <c r="P327" t="s" s="0">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="Q327" t="n" s="0">
-        <v>3.630000</v>
+        <v>3.190000</v>
       </c>
       <c r="R327" t="n" s="0">
-        <v>78.400000</v>
+        <v>82.890000</v>
       </c>
       <c r="S327" t="n" s="0">
-        <v>15.430000</v>
+        <v>8.920000</v>
       </c>
       <c r="T327" t="n" s="0">
-        <v>6.800000</v>
+        <v>5.620000</v>
       </c>
       <c r="U327" t="n" s="0">
-        <v>11.770000</v>
+        <v>5.760000</v>
       </c>
       <c r="V327" t="n" s="0">
-        <v>4.100000</v>
+        <v>2.050000</v>
       </c>
       <c r="W327" t="n" s="0">
-        <v>10.900000</v>
+        <v>7.680000</v>
       </c>
       <c r="X327" t="n" s="0">
-        <v>27.200000</v>
+        <v>14.680000</v>
       </c>
       <c r="Y327" t="n" s="0">
-        <v>55.160000</v>
+        <v>29.950000</v>
       </c>
       <c r="Z327" t="n" s="0">
-        <v>0.200000</v>
+        <v>0.270000</v>
       </c>
       <c r="AA327" t="n" s="0">
-        <v>0.025000</v>
+        <v>0.110000</v>
       </c>
       <c r="AB327" t="n" s="0">
-        <v>9.380000</v>
+        <v>10.430000</v>
       </c>
       <c r="AC327" t="n" s="0">
-        <v>0.520000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B328" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.600000</v>
       </c>
       <c r="C328" t="n" s="0">
-        <v>80.250000</v>
+        <v>78.430000</v>
       </c>
       <c r="D328" t="n" s="0">
-        <v>2.250000</v>
+        <v>15.370000</v>
       </c>
       <c r="E328" t="n" s="0">
-        <v>3.500000</v>
+        <v>6.800000</v>
       </c>
       <c r="F328" t="n" s="0">
-        <v>5.750000</v>
+        <v>11.700000</v>
       </c>
       <c r="G328" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.070000</v>
       </c>
       <c r="H328" t="n" s="0">
-        <v>7.250000</v>
+        <v>10.870000</v>
       </c>
       <c r="I328" t="n" s="0">
-        <v>8.000000</v>
+        <v>27.070000</v>
       </c>
       <c r="J328" t="n" s="0">
-        <v>23.100000</v>
+        <v>54.850000</v>
       </c>
       <c r="K328" t="n" s="0">
-        <v>6.500000</v>
+        <v>0.200000</v>
       </c>
       <c r="L328" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.025000</v>
       </c>
       <c r="M328" t="n" s="0">
-        <v>179.440000</v>
+        <v>9.380000</v>
       </c>
       <c r="N328" t="n" s="0">
-        <v>9.970000</v>
+        <v>0.520000</v>
       </c>
       <c r="O328" t="n" s="0">
         <v/>
       </c>
       <c r="P328" t="s" s="0">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="Q328" t="n" s="0">
-        <v>2.170000</v>
+        <v>3.630000</v>
       </c>
       <c r="R328" t="n" s="0">
-        <v>80.170000</v>
+        <v>78.400000</v>
       </c>
       <c r="S328" t="n" s="0">
-        <v>2.250000</v>
+        <v>15.430000</v>
       </c>
       <c r="T328" t="n" s="0">
-        <v>3.580000</v>
+        <v>6.800000</v>
       </c>
       <c r="U328" t="n" s="0">
-        <v>5.750000</v>
+        <v>11.770000</v>
       </c>
       <c r="V328" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.100000</v>
       </c>
       <c r="W328" t="n" s="0">
-        <v>7.330000</v>
+        <v>10.900000</v>
       </c>
       <c r="X328" t="n" s="0">
-        <v>8.000000</v>
+        <v>27.200000</v>
       </c>
       <c r="Y328" t="n" s="0">
-        <v>23.390000</v>
+        <v>55.160000</v>
       </c>
       <c r="Z328" t="n" s="0">
-        <v>6.920000</v>
+        <v>0.200000</v>
       </c>
       <c r="AA328" t="n" s="0">
-        <v>0.400000</v>
+        <v>0.025000</v>
       </c>
       <c r="AB328" t="n" s="0">
-        <v>196.730000</v>
+        <v>9.380000</v>
       </c>
       <c r="AC328" t="n" s="0">
-        <v>10.930000</v>
+        <v>0.520000</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B329" t="n" s="0">
-        <v>5.130000</v>
+        <v>2.170000</v>
       </c>
       <c r="C329" t="n" s="0">
-        <v>73.420000</v>
+        <v>80.250000</v>
       </c>
       <c r="D329" t="n" s="0">
-        <v>17.920000</v>
+        <v>2.250000</v>
       </c>
       <c r="E329" t="n" s="0">
-        <v>6.770000</v>
+        <v>3.500000</v>
       </c>
       <c r="F329" t="n" s="0">
-        <v>11.960000</v>
+        <v>5.750000</v>
       </c>
       <c r="G329" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="H329" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.250000</v>
       </c>
       <c r="I329" t="n" s="0">
-        <v>29.890000</v>
+        <v>8.000000</v>
       </c>
       <c r="J329" t="n" s="0">
-        <v>58.170000</v>
+        <v>23.100000</v>
       </c>
       <c r="K329" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.500000</v>
       </c>
       <c r="L329" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="M329" t="n" s="0">
-        <v>0.000000</v>
+        <v>179.440000</v>
       </c>
       <c r="N329" t="n" s="0">
-        <v>0.000000</v>
+        <v>9.970000</v>
       </c>
       <c r="O329" t="n" s="0">
         <v/>
       </c>
       <c r="P329" t="s" s="0">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="Q329" t="n" s="0">
-        <v>5.080000</v>
+        <v>2.170000</v>
       </c>
       <c r="R329" t="n" s="0">
-        <v>73.430000</v>
+        <v>80.170000</v>
       </c>
       <c r="S329" t="n" s="0">
-        <v>17.830000</v>
+        <v>2.250000</v>
       </c>
       <c r="T329" t="n" s="0">
-        <v>6.750000</v>
+        <v>3.580000</v>
       </c>
       <c r="U329" t="n" s="0">
-        <v>11.750000</v>
+        <v>5.750000</v>
       </c>
       <c r="V329" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.750000</v>
       </c>
       <c r="W329" t="n" s="0">
-        <v>11.550000</v>
+        <v>7.330000</v>
       </c>
       <c r="X329" t="n" s="0">
-        <v>29.580000</v>
+        <v>8.000000</v>
       </c>
       <c r="Y329" t="n" s="0">
-        <v>57.950000</v>
+        <v>23.390000</v>
       </c>
       <c r="Z329" t="n" s="0">
-        <v>0.000000</v>
+        <v>6.920000</v>
       </c>
       <c r="AA329" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.400000</v>
       </c>
       <c r="AB329" t="n" s="0">
-        <v>0.000000</v>
+        <v>196.730000</v>
       </c>
       <c r="AC329" t="n" s="0">
-        <v>0.000000</v>
+        <v>10.930000</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B330" t="n" s="0">
-        <v>1.410000</v>
+        <v>5.130000</v>
       </c>
       <c r="C330" t="n" s="0">
-        <v>86.360000</v>
+        <v>73.420000</v>
       </c>
       <c r="D330" t="n" s="0">
-        <v>4.550000</v>
+        <v>17.920000</v>
       </c>
       <c r="E330" t="n" s="0">
-        <v>3.180000</v>
+        <v>6.770000</v>
       </c>
       <c r="F330" t="n" s="0">
-        <v>5.090000</v>
+        <v>11.960000</v>
       </c>
       <c r="G330" t="n" s="0">
-        <v>3.180000</v>
+        <v>4.790000</v>
       </c>
       <c r="H330" t="n" s="0">
-        <v>6.360000</v>
+        <v>11.570000</v>
       </c>
       <c r="I330" t="n" s="0">
-        <v>9.640000</v>
+        <v>29.890000</v>
       </c>
       <c r="J330" t="n" s="0">
-        <v>21.740000</v>
+        <v>58.170000</v>
       </c>
       <c r="K330" t="n" s="0">
-        <v>2.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L330" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="M330" t="n" s="0">
-        <v>50.220000</v>
+        <v>0.000000</v>
       </c>
       <c r="N330" t="n" s="0">
-        <v>2.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="O330" t="n" s="0">
         <v/>
       </c>
       <c r="P330" t="s" s="0">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="Q330" t="n" s="0">
-        <v>1.550000</v>
+        <v>5.080000</v>
       </c>
       <c r="R330" t="n" s="0">
-        <v>86.320000</v>
+        <v>73.430000</v>
       </c>
       <c r="S330" t="n" s="0">
-        <v>4.770000</v>
+        <v>17.830000</v>
       </c>
       <c r="T330" t="n" s="0">
-        <v>3.180000</v>
+        <v>6.750000</v>
       </c>
       <c r="U330" t="n" s="0">
-        <v>5.500000</v>
+        <v>11.750000</v>
       </c>
       <c r="V330" t="n" s="0">
-        <v>3.450000</v>
+        <v>4.790000</v>
       </c>
       <c r="W330" t="n" s="0">
-        <v>6.640000</v>
+        <v>11.550000</v>
       </c>
       <c r="X330" t="n" s="0">
-        <v>10.270000</v>
+        <v>29.580000</v>
       </c>
       <c r="Y330" t="n" s="0">
-        <v>23.940000</v>
+        <v>57.950000</v>
       </c>
       <c r="Z330" t="n" s="0">
-        <v>2.000000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA330" t="n" s="0">
-        <v>0.170000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB330" t="n" s="0">
-        <v>48.050000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC330" t="n" s="0">
-        <v>2.670000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="B331" t="n" s="0">
-        <v>3.540000</v>
+        <v>1.410000</v>
       </c>
       <c r="C331" t="n" s="0">
-        <v>75.310000</v>
+        <v>86.360000</v>
       </c>
       <c r="D331" t="n" s="0">
-        <v>21.390000</v>
+        <v>4.550000</v>
       </c>
       <c r="E331" t="n" s="0">
-        <v>8.610000</v>
+        <v>3.180000</v>
       </c>
       <c r="F331" t="n" s="0">
-        <v>17.060000</v>
+        <v>5.090000</v>
       </c>
       <c r="G331" t="n" s="0">
-        <v>5.280000</v>
+        <v>3.180000</v>
       </c>
       <c r="H331" t="n" s="0">
-        <v>13.890000</v>
+        <v>6.360000</v>
       </c>
       <c r="I331" t="n" s="0">
-        <v>38.440000</v>
+        <v>9.640000</v>
       </c>
       <c r="J331" t="n" s="0">
-        <v>75.840000</v>
+        <v>21.740000</v>
       </c>
       <c r="K331" t="n" s="0">
-        <v>0.260000</v>
+        <v>2.140000</v>
       </c>
       <c r="L331" t="n" s="0">
-        <v>0.039000</v>
+        <v>0.140000</v>
       </c>
       <c r="M331" t="n" s="0">
-        <v>5.570000</v>
+        <v>50.220000</v>
       </c>
       <c r="N331" t="n" s="0">
-        <v>0.310000</v>
+        <v>2.790000</v>
       </c>
       <c r="O331" t="n" s="0">
         <v/>
       </c>
       <c r="P331" t="s" s="0">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="Q331" t="n" s="0">
-        <v>3.560000</v>
+        <v>1.550000</v>
       </c>
       <c r="R331" t="n" s="0">
-        <v>75.350000</v>
+        <v>86.320000</v>
       </c>
       <c r="S331" t="n" s="0">
-        <v>21.350000</v>
+        <v>4.770000</v>
       </c>
       <c r="T331" t="n" s="0">
-        <v>8.570000</v>
+        <v>3.180000</v>
       </c>
       <c r="U331" t="n" s="0">
-        <v>17.090000</v>
+        <v>5.500000</v>
       </c>
       <c r="V331" t="n" s="0">
-        <v>5.300000</v>
+        <v>3.450000</v>
       </c>
       <c r="W331" t="n" s="0">
-        <v>13.870000</v>
+        <v>6.640000</v>
       </c>
       <c r="X331" t="n" s="0">
-        <v>38.440000</v>
+        <v>10.270000</v>
       </c>
       <c r="Y331" t="n" s="0">
-        <v>75.780000</v>
+        <v>23.940000</v>
       </c>
       <c r="Z331" t="n" s="0">
-        <v>0.260000</v>
+        <v>2.000000</v>
       </c>
       <c r="AA331" t="n" s="0">
-        <v>0.039000</v>
+        <v>0.170000</v>
       </c>
       <c r="AB331" t="n" s="0">
-        <v>5.570000</v>
+        <v>48.050000</v>
       </c>
       <c r="AC331" t="n" s="0">
-        <v>0.310000</v>
+        <v>2.670000</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B332" t="n" s="0">
-        <v>3.500000</v>
+        <v>3.540000</v>
       </c>
       <c r="C332" t="n" s="0">
-        <v>75.430000</v>
+        <v>75.310000</v>
       </c>
       <c r="D332" t="n" s="0">
-        <v>20.940000</v>
+        <v>21.390000</v>
       </c>
       <c r="E332" t="n" s="0">
-        <v>8.540000</v>
+        <v>8.610000</v>
       </c>
       <c r="F332" t="n" s="0">
-        <v>16.850000</v>
+        <v>17.060000</v>
       </c>
       <c r="G332" t="n" s="0">
-        <v>5.260000</v>
+        <v>5.280000</v>
       </c>
       <c r="H332" t="n" s="0">
-        <v>13.800000</v>
+        <v>13.890000</v>
       </c>
       <c r="I332" t="n" s="0">
-        <v>37.800000</v>
+        <v>38.440000</v>
       </c>
       <c r="J332" t="n" s="0">
-        <v>75.060000</v>
+        <v>75.840000</v>
       </c>
       <c r="K332" t="n" s="0">
         <v>0.260000</v>
@@ -30337,140 +30424,140 @@
         <v/>
       </c>
       <c r="P332" t="s" s="0">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="Q332" t="n" s="0">
-        <v>3.480000</v>
+        <v>3.560000</v>
       </c>
       <c r="R332" t="n" s="0">
-        <v>75.520000</v>
+        <v>75.350000</v>
       </c>
       <c r="S332" t="n" s="0">
-        <v>20.940000</v>
+        <v>21.350000</v>
       </c>
       <c r="T332" t="n" s="0">
-        <v>8.540000</v>
+        <v>8.570000</v>
       </c>
       <c r="U332" t="n" s="0">
-        <v>16.800000</v>
+        <v>17.090000</v>
       </c>
       <c r="V332" t="n" s="0">
-        <v>5.220000</v>
+        <v>5.300000</v>
       </c>
       <c r="W332" t="n" s="0">
-        <v>13.760000</v>
+        <v>13.870000</v>
       </c>
       <c r="X332" t="n" s="0">
-        <v>37.740000</v>
+        <v>38.440000</v>
       </c>
       <c r="Y332" t="n" s="0">
-        <v>75.040000</v>
+        <v>75.780000</v>
       </c>
       <c r="Z332" t="n" s="0">
-        <v>0.093000</v>
+        <v>0.260000</v>
       </c>
       <c r="AA332" t="n" s="0">
-        <v>0.037000</v>
+        <v>0.039000</v>
       </c>
       <c r="AB332" t="n" s="0">
-        <v>2.300000</v>
+        <v>5.570000</v>
       </c>
       <c r="AC332" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.310000</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B333" t="n" s="0">
-        <v>2.620000</v>
+        <v>3.500000</v>
       </c>
       <c r="C333" t="n" s="0">
-        <v>83.690000</v>
+        <v>75.430000</v>
       </c>
       <c r="D333" t="n" s="0">
-        <v>10.720000</v>
+        <v>20.940000</v>
       </c>
       <c r="E333" t="n" s="0">
-        <v>4.780000</v>
+        <v>8.540000</v>
       </c>
       <c r="F333" t="n" s="0">
-        <v>10.160000</v>
+        <v>16.850000</v>
       </c>
       <c r="G333" t="n" s="0">
-        <v>3.440000</v>
+        <v>5.260000</v>
       </c>
       <c r="H333" t="n" s="0">
-        <v>8.220000</v>
+        <v>13.800000</v>
       </c>
       <c r="I333" t="n" s="0">
-        <v>20.880000</v>
+        <v>37.800000</v>
       </c>
       <c r="J333" t="n" s="0">
-        <v>38.200000</v>
+        <v>75.060000</v>
       </c>
       <c r="K333" t="n" s="0">
-        <v>1.090000</v>
+        <v>0.260000</v>
       </c>
       <c r="L333" t="n" s="0">
-        <v>0.160000</v>
+        <v>0.039000</v>
       </c>
       <c r="M333" t="n" s="0">
-        <v>52.880000</v>
+        <v>5.570000</v>
       </c>
       <c r="N333" t="n" s="0">
-        <v>2.940000</v>
+        <v>0.310000</v>
       </c>
       <c r="O333" t="n" s="0">
         <v/>
       </c>
       <c r="P333" t="s" s="0">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="Q333" t="n" s="0">
-        <v>2.660000</v>
+        <v>3.480000</v>
       </c>
       <c r="R333" t="n" s="0">
-        <v>83.660000</v>
+        <v>75.520000</v>
       </c>
       <c r="S333" t="n" s="0">
-        <v>10.720000</v>
+        <v>20.940000</v>
       </c>
       <c r="T333" t="n" s="0">
-        <v>4.780000</v>
+        <v>8.540000</v>
       </c>
       <c r="U333" t="n" s="0">
-        <v>10.250000</v>
+        <v>16.800000</v>
       </c>
       <c r="V333" t="n" s="0">
-        <v>3.440000</v>
+        <v>5.220000</v>
       </c>
       <c r="W333" t="n" s="0">
-        <v>8.220000</v>
+        <v>13.760000</v>
       </c>
       <c r="X333" t="n" s="0">
-        <v>20.970000</v>
+        <v>37.740000</v>
       </c>
       <c r="Y333" t="n" s="0">
-        <v>38.230000</v>
+        <v>75.040000</v>
       </c>
       <c r="Z333" t="n" s="0">
-        <v>1.090000</v>
+        <v>0.093000</v>
       </c>
       <c r="AA333" t="n" s="0">
-        <v>0.160000</v>
+        <v>0.037000</v>
       </c>
       <c r="AB333" t="n" s="0">
-        <v>52.880000</v>
+        <v>2.300000</v>
       </c>
       <c r="AC333" t="n" s="0">
-        <v>2.940000</v>
+        <v>0.130000</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B334" t="n" s="0">
         <v>2.620000</v>
@@ -30515,34 +30602,34 @@
         <v/>
       </c>
       <c r="P334" t="s" s="0">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="Q334" t="n" s="0">
-        <v>2.590000</v>
+        <v>2.660000</v>
       </c>
       <c r="R334" t="n" s="0">
-        <v>83.720000</v>
+        <v>83.660000</v>
       </c>
       <c r="S334" t="n" s="0">
-        <v>10.500000</v>
+        <v>10.720000</v>
       </c>
       <c r="T334" t="n" s="0">
         <v>4.780000</v>
       </c>
       <c r="U334" t="n" s="0">
-        <v>10.030000</v>
+        <v>10.250000</v>
       </c>
       <c r="V334" t="n" s="0">
-        <v>3.380000</v>
+        <v>3.440000</v>
       </c>
       <c r="W334" t="n" s="0">
-        <v>8.160000</v>
+        <v>8.220000</v>
       </c>
       <c r="X334" t="n" s="0">
-        <v>20.530000</v>
+        <v>20.970000</v>
       </c>
       <c r="Y334" t="n" s="0">
-        <v>37.660000</v>
+        <v>38.230000</v>
       </c>
       <c r="Z334" t="n" s="0">
         <v>1.090000</v>
@@ -30559,452 +30646,452 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B335" t="n" s="0">
-        <v>2.060000</v>
+        <v>2.620000</v>
       </c>
       <c r="C335" t="n" s="0">
-        <v>80.300000</v>
+        <v>83.690000</v>
       </c>
       <c r="D335" t="n" s="0">
-        <v>10.130000</v>
+        <v>10.720000</v>
       </c>
       <c r="E335" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.780000</v>
       </c>
       <c r="F335" t="n" s="0">
-        <v>7.160000</v>
+        <v>10.160000</v>
       </c>
       <c r="G335" t="n" s="0">
-        <v>3.040000</v>
+        <v>3.440000</v>
       </c>
       <c r="H335" t="n" s="0">
-        <v>6.800000</v>
+        <v>8.220000</v>
       </c>
       <c r="I335" t="n" s="0">
-        <v>17.290000</v>
+        <v>20.880000</v>
       </c>
       <c r="J335" t="n" s="0">
-        <v>29.440000</v>
+        <v>38.200000</v>
       </c>
       <c r="K335" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.090000</v>
       </c>
       <c r="L335" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.160000</v>
       </c>
       <c r="M335" t="n" s="0">
-        <v>0.087000</v>
+        <v>52.880000</v>
       </c>
       <c r="N335" t="n" s="0">
-        <v>0.004800</v>
+        <v>2.940000</v>
       </c>
       <c r="O335" t="n" s="0">
         <v/>
       </c>
       <c r="P335" t="s" s="0">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="Q335" t="n" s="0">
-        <v>2.070000</v>
+        <v>2.590000</v>
       </c>
       <c r="R335" t="n" s="0">
-        <v>80.260000</v>
+        <v>83.720000</v>
       </c>
       <c r="S335" t="n" s="0">
-        <v>10.190000</v>
+        <v>10.500000</v>
       </c>
       <c r="T335" t="n" s="0">
-        <v>3.750000</v>
+        <v>4.780000</v>
       </c>
       <c r="U335" t="n" s="0">
-        <v>7.190000</v>
+        <v>10.030000</v>
       </c>
       <c r="V335" t="n" s="0">
-        <v>3.060000</v>
+        <v>3.380000</v>
       </c>
       <c r="W335" t="n" s="0">
-        <v>6.810000</v>
+        <v>8.160000</v>
       </c>
       <c r="X335" t="n" s="0">
-        <v>17.380000</v>
+        <v>20.530000</v>
       </c>
       <c r="Y335" t="n" s="0">
-        <v>29.540000</v>
+        <v>37.660000</v>
       </c>
       <c r="Z335" t="n" s="0">
-        <v>0.014000</v>
+        <v>1.090000</v>
       </c>
       <c r="AA335" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.160000</v>
       </c>
       <c r="AB335" t="n" s="0">
-        <v>0.087000</v>
+        <v>52.880000</v>
       </c>
       <c r="AC335" t="n" s="0">
-        <v>0.004800</v>
+        <v>2.940000</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B336" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.060000</v>
       </c>
       <c r="C336" t="n" s="0">
-        <v>78.860000</v>
+        <v>80.300000</v>
       </c>
       <c r="D336" t="n" s="0">
-        <v>16.000000</v>
+        <v>10.130000</v>
       </c>
       <c r="E336" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.750000</v>
       </c>
       <c r="F336" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.160000</v>
       </c>
       <c r="G336" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.040000</v>
       </c>
       <c r="H336" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.800000</v>
       </c>
       <c r="I336" t="n" s="0">
-        <v>27.570000</v>
+        <v>17.290000</v>
       </c>
       <c r="J336" t="n" s="0">
-        <v>48.540000</v>
+        <v>29.440000</v>
       </c>
       <c r="K336" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="L336" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="M336" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="N336" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
       <c r="O336" t="n" s="0">
         <v/>
       </c>
       <c r="P336" t="s" s="0">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="Q336" t="n" s="0">
-        <v>5.290000</v>
+        <v>2.070000</v>
       </c>
       <c r="R336" t="n" s="0">
-        <v>78.570000</v>
+        <v>80.260000</v>
       </c>
       <c r="S336" t="n" s="0">
-        <v>17.710000</v>
+        <v>10.190000</v>
       </c>
       <c r="T336" t="n" s="0">
-        <v>6.430000</v>
+        <v>3.750000</v>
       </c>
       <c r="U336" t="n" s="0">
-        <v>13.570000</v>
+        <v>7.190000</v>
       </c>
       <c r="V336" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.060000</v>
       </c>
       <c r="W336" t="n" s="0">
-        <v>10.000000</v>
+        <v>6.810000</v>
       </c>
       <c r="X336" t="n" s="0">
-        <v>31.290000</v>
+        <v>17.380000</v>
       </c>
       <c r="Y336" t="n" s="0">
-        <v>50.670000</v>
+        <v>29.540000</v>
       </c>
       <c r="Z336" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="AA336" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="AB336" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="AC336" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B337" t="n" s="0">
-        <v>2.150000</v>
+        <v>5.000000</v>
       </c>
       <c r="C337" t="n" s="0">
-        <v>78.540000</v>
+        <v>78.860000</v>
       </c>
       <c r="D337" t="n" s="0">
-        <v>13.850000</v>
+        <v>16.000000</v>
       </c>
       <c r="E337" t="n" s="0">
-        <v>5.620000</v>
+        <v>6.290000</v>
       </c>
       <c r="F337" t="n" s="0">
-        <v>8.080000</v>
+        <v>11.570000</v>
       </c>
       <c r="G337" t="n" s="0">
-        <v>4.000000</v>
+        <v>3.570000</v>
       </c>
       <c r="H337" t="n" s="0">
-        <v>9.620000</v>
+        <v>9.860000</v>
       </c>
       <c r="I337" t="n" s="0">
-        <v>21.920000</v>
+        <v>27.570000</v>
       </c>
       <c r="J337" t="n" s="0">
-        <v>45.250000</v>
+        <v>48.540000</v>
       </c>
       <c r="K337" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.430000</v>
       </c>
       <c r="L337" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.210000</v>
       </c>
       <c r="M337" t="n" s="0">
-        <v>1.300000</v>
+        <v>10.380000</v>
       </c>
       <c r="N337" t="n" s="0">
-        <v>0.072000</v>
+        <v>0.580000</v>
       </c>
       <c r="O337" t="n" s="0">
         <v/>
       </c>
       <c r="P337" t="s" s="0">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="Q337" t="n" s="0">
-        <v>2.230000</v>
+        <v>5.290000</v>
       </c>
       <c r="R337" t="n" s="0">
-        <v>78.380000</v>
+        <v>78.570000</v>
       </c>
       <c r="S337" t="n" s="0">
-        <v>14.000000</v>
+        <v>17.710000</v>
       </c>
       <c r="T337" t="n" s="0">
-        <v>5.690000</v>
+        <v>6.430000</v>
       </c>
       <c r="U337" t="n" s="0">
-        <v>8.230000</v>
+        <v>13.570000</v>
       </c>
       <c r="V337" t="n" s="0">
-        <v>4.150000</v>
+        <v>3.570000</v>
       </c>
       <c r="W337" t="n" s="0">
-        <v>9.850000</v>
+        <v>10.000000</v>
       </c>
       <c r="X337" t="n" s="0">
-        <v>22.230000</v>
+        <v>31.290000</v>
       </c>
       <c r="Y337" t="n" s="0">
-        <v>46.680000</v>
+        <v>50.670000</v>
       </c>
       <c r="Z337" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.430000</v>
       </c>
       <c r="AA337" t="n" s="0">
-        <v>0.077000</v>
+        <v>0.210000</v>
       </c>
       <c r="AB337" t="n" s="0">
-        <v>1.300000</v>
+        <v>10.380000</v>
       </c>
       <c r="AC337" t="n" s="0">
-        <v>0.072000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B338" t="n" s="0">
+        <v>2.150000</v>
+      </c>
+      <c r="C338" t="n" s="0">
+        <v>78.540000</v>
+      </c>
+      <c r="D338" t="n" s="0">
+        <v>13.850000</v>
+      </c>
+      <c r="E338" t="n" s="0">
+        <v>5.620000</v>
+      </c>
+      <c r="F338" t="n" s="0">
+        <v>8.080000</v>
+      </c>
+      <c r="G338" t="n" s="0">
+        <v>4.000000</v>
+      </c>
+      <c r="H338" t="n" s="0">
+        <v>9.620000</v>
+      </c>
+      <c r="I338" t="n" s="0">
+        <v>21.920000</v>
+      </c>
+      <c r="J338" t="n" s="0">
+        <v>45.250000</v>
+      </c>
+      <c r="K338" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="L338" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="M338" t="n" s="0">
         <v>1.300000</v>
       </c>
-      <c r="C338" t="n" s="0">
-        <v>90.700000</v>
-      </c>
-      <c r="D338" t="n" s="0">
-        <v>4.130000</v>
-      </c>
-      <c r="E338" t="n" s="0">
-        <v>3.520000</v>
-      </c>
-      <c r="F338" t="n" s="0">
-        <v>3.220000</v>
-      </c>
-      <c r="G338" t="n" s="0">
-        <v>1.570000</v>
-      </c>
-      <c r="H338" t="n" s="0">
-        <v>5.090000</v>
-      </c>
-      <c r="I338" t="n" s="0">
-        <v>7.350000</v>
-      </c>
-      <c r="J338" t="n" s="0">
-        <v>16.900000</v>
-      </c>
-      <c r="K338" t="n" s="0">
-        <v>0.300000</v>
-      </c>
-      <c r="L338" t="n" s="0">
-        <v>0.051000</v>
-      </c>
-      <c r="M338" t="n" s="0">
-        <v>5.370000</v>
-      </c>
       <c r="N338" t="n" s="0">
-        <v>0.300000</v>
+        <v>0.072000</v>
       </c>
       <c r="O338" t="n" s="0">
         <v/>
       </c>
       <c r="P338" t="s" s="0">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="Q338" t="n" s="0">
+        <v>2.230000</v>
+      </c>
+      <c r="R338" t="n" s="0">
+        <v>78.380000</v>
+      </c>
+      <c r="S338" t="n" s="0">
+        <v>14.000000</v>
+      </c>
+      <c r="T338" t="n" s="0">
+        <v>5.690000</v>
+      </c>
+      <c r="U338" t="n" s="0">
+        <v>8.230000</v>
+      </c>
+      <c r="V338" t="n" s="0">
+        <v>4.150000</v>
+      </c>
+      <c r="W338" t="n" s="0">
+        <v>9.850000</v>
+      </c>
+      <c r="X338" t="n" s="0">
+        <v>22.230000</v>
+      </c>
+      <c r="Y338" t="n" s="0">
+        <v>46.680000</v>
+      </c>
+      <c r="Z338" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="AA338" t="n" s="0">
+        <v>0.077000</v>
+      </c>
+      <c r="AB338" t="n" s="0">
         <v>1.300000</v>
       </c>
-      <c r="R338" t="n" s="0">
-        <v>90.700000</v>
-      </c>
-      <c r="S338" t="n" s="0">
-        <v>4.130000</v>
-      </c>
-      <c r="T338" t="n" s="0">
-        <v>3.520000</v>
-      </c>
-      <c r="U338" t="n" s="0">
-        <v>3.220000</v>
-      </c>
-      <c r="V338" t="n" s="0">
-        <v>1.570000</v>
-      </c>
-      <c r="W338" t="n" s="0">
-        <v>5.090000</v>
-      </c>
-      <c r="X338" t="n" s="0">
-        <v>7.350000</v>
-      </c>
-      <c r="Y338" t="n" s="0">
-        <v>16.900000</v>
-      </c>
-      <c r="Z338" t="n" s="0">
-        <v>0.300000</v>
-      </c>
-      <c r="AA338" t="n" s="0">
-        <v>0.051000</v>
-      </c>
-      <c r="AB338" t="n" s="0">
-        <v>5.370000</v>
-      </c>
       <c r="AC338" t="n" s="0">
-        <v>0.300000</v>
+        <v>0.072000</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B339" t="n" s="0">
-        <v>6.000000</v>
+        <v>1.300000</v>
       </c>
       <c r="C339" t="n" s="0">
-        <v>65.240000</v>
+        <v>90.700000</v>
       </c>
       <c r="D339" t="n" s="0">
-        <v>51.360000</v>
+        <v>4.130000</v>
       </c>
       <c r="E339" t="n" s="0">
-        <v>11.980000</v>
+        <v>3.520000</v>
       </c>
       <c r="F339" t="n" s="0">
-        <v>44.050000</v>
+        <v>3.220000</v>
       </c>
       <c r="G339" t="n" s="0">
-        <v>8.380000</v>
+        <v>1.570000</v>
       </c>
       <c r="H339" t="n" s="0">
-        <v>20.360000</v>
+        <v>5.090000</v>
       </c>
       <c r="I339" t="n" s="0">
-        <v>95.400000</v>
+        <v>7.350000</v>
       </c>
       <c r="J339" t="n" s="0">
-        <v>133.090000</v>
+        <v>16.900000</v>
       </c>
       <c r="K339" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.300000</v>
       </c>
       <c r="L339" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.051000</v>
       </c>
       <c r="M339" t="n" s="0">
-        <v>3.790000</v>
+        <v>5.370000</v>
       </c>
       <c r="N339" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.300000</v>
       </c>
       <c r="O339" t="n" s="0">
         <v/>
       </c>
       <c r="P339" t="s" s="0">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="Q339" t="n" s="0">
-        <v>6.020000</v>
+        <v>1.300000</v>
       </c>
       <c r="R339" t="n" s="0">
-        <v>65.210000</v>
+        <v>90.700000</v>
       </c>
       <c r="S339" t="n" s="0">
-        <v>51.360000</v>
+        <v>4.130000</v>
       </c>
       <c r="T339" t="n" s="0">
-        <v>12.000000</v>
+        <v>3.520000</v>
       </c>
       <c r="U339" t="n" s="0">
-        <v>44.100000</v>
+        <v>3.220000</v>
       </c>
       <c r="V339" t="n" s="0">
-        <v>8.400000</v>
+        <v>1.570000</v>
       </c>
       <c r="W339" t="n" s="0">
-        <v>20.400000</v>
+        <v>5.090000</v>
       </c>
       <c r="X339" t="n" s="0">
-        <v>95.450000</v>
+        <v>7.350000</v>
       </c>
       <c r="Y339" t="n" s="0">
-        <v>133.390000</v>
+        <v>16.900000</v>
       </c>
       <c r="Z339" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.300000</v>
       </c>
       <c r="AA339" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.051000</v>
       </c>
       <c r="AB339" t="n" s="0">
-        <v>3.790000</v>
+        <v>5.370000</v>
       </c>
       <c r="AC339" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.300000</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="B340" t="n" s="0">
         <v>6.000000</v>
@@ -31049,34 +31136,34 @@
         <v/>
       </c>
       <c r="P340" t="s" s="0">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="Q340" t="n" s="0">
         <v>6.020000</v>
       </c>
       <c r="R340" t="n" s="0">
-        <v>65.260000</v>
+        <v>65.210000</v>
       </c>
       <c r="S340" t="n" s="0">
-        <v>51.330000</v>
+        <v>51.360000</v>
       </c>
       <c r="T340" t="n" s="0">
         <v>12.000000</v>
       </c>
       <c r="U340" t="n" s="0">
-        <v>44.050000</v>
+        <v>44.100000</v>
       </c>
       <c r="V340" t="n" s="0">
-        <v>8.330000</v>
+        <v>8.400000</v>
       </c>
       <c r="W340" t="n" s="0">
-        <v>20.330000</v>
+        <v>20.400000</v>
       </c>
       <c r="X340" t="n" s="0">
-        <v>95.380000</v>
+        <v>95.450000</v>
       </c>
       <c r="Y340" t="n" s="0">
-        <v>132.900000</v>
+        <v>133.390000</v>
       </c>
       <c r="Z340" t="n" s="0">
         <v>0.290000</v>
@@ -31093,301 +31180,301 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B341" t="n" s="0">
-        <v>3.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C341" t="n" s="0">
-        <v>75.110000</v>
+        <v>65.240000</v>
       </c>
       <c r="D341" t="n" s="0">
-        <v>11.330000</v>
+        <v>51.360000</v>
       </c>
       <c r="E341" t="n" s="0">
-        <v>6.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="F341" t="n" s="0">
-        <v>10.110000</v>
+        <v>44.050000</v>
       </c>
       <c r="G341" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.380000</v>
       </c>
       <c r="H341" t="n" s="0">
-        <v>11.110000</v>
+        <v>20.360000</v>
       </c>
       <c r="I341" t="n" s="0">
-        <v>21.440000</v>
+        <v>95.400000</v>
       </c>
       <c r="J341" t="n" s="0">
-        <v>51.120000</v>
+        <v>133.090000</v>
       </c>
       <c r="K341" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="L341" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="M341" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="N341" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
       <c r="O341" t="n" s="0">
         <v/>
       </c>
       <c r="P341" t="s" s="0">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="Q341" t="n" s="0">
-        <v>3.110000</v>
+        <v>6.020000</v>
       </c>
       <c r="R341" t="n" s="0">
-        <v>74.890000</v>
+        <v>65.260000</v>
       </c>
       <c r="S341" t="n" s="0">
-        <v>11.440000</v>
+        <v>51.330000</v>
       </c>
       <c r="T341" t="n" s="0">
-        <v>6.000000</v>
+        <v>12.000000</v>
       </c>
       <c r="U341" t="n" s="0">
-        <v>10.330000</v>
+        <v>44.050000</v>
       </c>
       <c r="V341" t="n" s="0">
-        <v>5.220000</v>
+        <v>8.330000</v>
       </c>
       <c r="W341" t="n" s="0">
-        <v>11.220000</v>
+        <v>20.330000</v>
       </c>
       <c r="X341" t="n" s="0">
-        <v>21.780000</v>
+        <v>95.380000</v>
       </c>
       <c r="Y341" t="n" s="0">
-        <v>51.910000</v>
+        <v>132.900000</v>
       </c>
       <c r="Z341" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="AA341" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB341" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="AC341" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B342" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.000000</v>
       </c>
       <c r="C342" t="n" s="0">
-        <v>82.860000</v>
+        <v>75.110000</v>
       </c>
       <c r="D342" t="n" s="0">
-        <v>14.860000</v>
+        <v>11.330000</v>
       </c>
       <c r="E342" t="n" s="0">
-        <v>6.430000</v>
+        <v>6.000000</v>
       </c>
       <c r="F342" t="n" s="0">
-        <v>7.710000</v>
+        <v>10.110000</v>
       </c>
       <c r="G342" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.110000</v>
       </c>
       <c r="H342" t="n" s="0">
-        <v>10.000000</v>
+        <v>11.110000</v>
       </c>
       <c r="I342" t="n" s="0">
-        <v>22.570000</v>
+        <v>21.440000</v>
       </c>
       <c r="J342" t="n" s="0">
-        <v>50.990000</v>
+        <v>51.120000</v>
       </c>
       <c r="K342" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="L342" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="M342" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="N342" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="O342" t="n" s="0">
         <v/>
       </c>
       <c r="P342" t="s" s="0">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="Q342" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.110000</v>
       </c>
       <c r="R342" t="n" s="0">
-        <v>82.860000</v>
+        <v>74.890000</v>
       </c>
       <c r="S342" t="n" s="0">
-        <v>14.570000</v>
+        <v>11.440000</v>
       </c>
       <c r="T342" t="n" s="0">
-        <v>6.570000</v>
+        <v>6.000000</v>
       </c>
       <c r="U342" t="n" s="0">
-        <v>7.710000</v>
+        <v>10.330000</v>
       </c>
       <c r="V342" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.220000</v>
       </c>
       <c r="W342" t="n" s="0">
-        <v>10.140000</v>
+        <v>11.220000</v>
       </c>
       <c r="X342" t="n" s="0">
-        <v>22.290000</v>
+        <v>21.780000</v>
       </c>
       <c r="Y342" t="n" s="0">
-        <v>51.780000</v>
+        <v>51.910000</v>
       </c>
       <c r="Z342" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA342" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB342" t="n" s="0">
-        <v>2.580000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC342" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B343" t="n" s="0">
-        <v>2.230000</v>
+        <v>2.570000</v>
       </c>
       <c r="C343" t="n" s="0">
-        <v>84.970000</v>
+        <v>82.860000</v>
       </c>
       <c r="D343" t="n" s="0">
-        <v>9.160000</v>
+        <v>14.860000</v>
       </c>
       <c r="E343" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.430000</v>
       </c>
       <c r="F343" t="n" s="0">
-        <v>8.320000</v>
+        <v>7.710000</v>
       </c>
       <c r="G343" t="n" s="0">
-        <v>3.230000</v>
+        <v>3.570000</v>
       </c>
       <c r="H343" t="n" s="0">
-        <v>7.230000</v>
+        <v>10.000000</v>
       </c>
       <c r="I343" t="n" s="0">
-        <v>17.480000</v>
+        <v>22.570000</v>
       </c>
       <c r="J343" t="n" s="0">
-        <v>31.720000</v>
+        <v>50.990000</v>
       </c>
       <c r="K343" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="L343" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="M343" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="N343" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
       <c r="O343" t="n" s="0">
         <v/>
       </c>
       <c r="P343" t="s" s="0">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="Q343" t="n" s="0">
-        <v>2.230000</v>
+        <v>2.570000</v>
       </c>
       <c r="R343" t="n" s="0">
-        <v>84.970000</v>
+        <v>82.860000</v>
       </c>
       <c r="S343" t="n" s="0">
-        <v>9.160000</v>
+        <v>14.570000</v>
       </c>
       <c r="T343" t="n" s="0">
-        <v>3.970000</v>
+        <v>6.570000</v>
       </c>
       <c r="U343" t="n" s="0">
-        <v>8.260000</v>
+        <v>7.710000</v>
       </c>
       <c r="V343" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.570000</v>
       </c>
       <c r="W343" t="n" s="0">
-        <v>7.130000</v>
+        <v>10.140000</v>
       </c>
       <c r="X343" t="n" s="0">
-        <v>17.420000</v>
+        <v>22.290000</v>
       </c>
       <c r="Y343" t="n" s="0">
-        <v>31.150000</v>
+        <v>51.780000</v>
       </c>
       <c r="Z343" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA343" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="AB343" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="AC343" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="B344" t="n" s="0">
-        <v>2.190000</v>
+        <v>2.230000</v>
       </c>
       <c r="C344" t="n" s="0">
-        <v>85.000000</v>
+        <v>84.970000</v>
       </c>
       <c r="D344" t="n" s="0">
-        <v>9.130000</v>
+        <v>9.160000</v>
       </c>
       <c r="E344" t="n" s="0">
-        <v>3.970000</v>
+        <v>4.000000</v>
       </c>
       <c r="F344" t="n" s="0">
-        <v>8.190000</v>
+        <v>8.320000</v>
       </c>
       <c r="G344" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.230000</v>
       </c>
       <c r="H344" t="n" s="0">
-        <v>7.130000</v>
+        <v>7.230000</v>
       </c>
       <c r="I344" t="n" s="0">
-        <v>17.320000</v>
+        <v>17.480000</v>
       </c>
       <c r="J344" t="n" s="0">
-        <v>31.120000</v>
+        <v>31.720000</v>
       </c>
       <c r="K344" t="n" s="0">
         <v>0.230000</v>
@@ -31405,34 +31492,34 @@
         <v/>
       </c>
       <c r="P344" t="s" s="0">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="Q344" t="n" s="0">
-        <v>2.290000</v>
+        <v>2.230000</v>
       </c>
       <c r="R344" t="n" s="0">
-        <v>84.940000</v>
+        <v>84.970000</v>
       </c>
       <c r="S344" t="n" s="0">
-        <v>9.260000</v>
+        <v>9.160000</v>
       </c>
       <c r="T344" t="n" s="0">
-        <v>4.000000</v>
+        <v>3.970000</v>
       </c>
       <c r="U344" t="n" s="0">
-        <v>8.550000</v>
+        <v>8.260000</v>
       </c>
       <c r="V344" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.160000</v>
       </c>
       <c r="W344" t="n" s="0">
-        <v>7.190000</v>
+        <v>7.130000</v>
       </c>
       <c r="X344" t="n" s="0">
-        <v>17.810000</v>
+        <v>17.420000</v>
       </c>
       <c r="Y344" t="n" s="0">
-        <v>31.710000</v>
+        <v>31.150000</v>
       </c>
       <c r="Z344" t="n" s="0">
         <v>0.230000</v>
@@ -31449,180 +31536,180 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B345" t="n" s="0">
+        <v>2.190000</v>
+      </c>
+      <c r="C345" t="n" s="0">
+        <v>85.000000</v>
+      </c>
+      <c r="D345" t="n" s="0">
+        <v>9.130000</v>
+      </c>
+      <c r="E345" t="n" s="0">
+        <v>3.970000</v>
+      </c>
+      <c r="F345" t="n" s="0">
+        <v>8.190000</v>
+      </c>
+      <c r="G345" t="n" s="0">
+        <v>3.160000</v>
+      </c>
+      <c r="H345" t="n" s="0">
+        <v>7.130000</v>
+      </c>
+      <c r="I345" t="n" s="0">
+        <v>17.320000</v>
+      </c>
+      <c r="J345" t="n" s="0">
+        <v>31.120000</v>
+      </c>
+      <c r="K345" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="L345" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="M345" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="N345" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+      <c r="O345" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P345" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="Q345" t="n" s="0">
+        <v>2.290000</v>
+      </c>
+      <c r="R345" t="n" s="0">
+        <v>84.940000</v>
+      </c>
+      <c r="S345" t="n" s="0">
+        <v>9.260000</v>
+      </c>
+      <c r="T345" t="n" s="0">
+        <v>4.000000</v>
+      </c>
+      <c r="U345" t="n" s="0">
+        <v>8.550000</v>
+      </c>
+      <c r="V345" t="n" s="0">
+        <v>3.190000</v>
+      </c>
+      <c r="W345" t="n" s="0">
+        <v>7.190000</v>
+      </c>
+      <c r="X345" t="n" s="0">
+        <v>17.810000</v>
+      </c>
+      <c r="Y345" t="n" s="0">
+        <v>31.710000</v>
+      </c>
+      <c r="Z345" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="AA345" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="AB345" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="AC345" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B346" t="n" s="0">
         <v>2.390000</v>
       </c>
-      <c r="C345" t="n" s="0">
+      <c r="C346" t="n" s="0">
         <v>82.720000</v>
       </c>
-      <c r="D345" t="n" s="0">
+      <c r="D346" t="n" s="0">
         <v>16.890000</v>
       </c>
-      <c r="E345" t="n" s="0">
+      <c r="E346" t="n" s="0">
         <v>5.500000</v>
       </c>
-      <c r="F345" t="n" s="0">
+      <c r="F346" t="n" s="0">
         <v>10.110000</v>
       </c>
-      <c r="G345" t="n" s="0">
+      <c r="G346" t="n" s="0">
         <v>3.780000</v>
       </c>
-      <c r="H345" t="n" s="0">
+      <c r="H346" t="n" s="0">
         <v>9.280000</v>
       </c>
-      <c r="I345" t="n" s="0">
+      <c r="I346" t="n" s="0">
         <v>27.000000</v>
       </c>
-      <c r="J345" t="n" s="0">
+      <c r="J346" t="n" s="0">
         <v>49.560000</v>
       </c>
-      <c r="K345" t="n" s="0">
+      <c r="K346" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="L345" t="n" s="0">
+      <c r="L346" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="M345" t="n" s="0">
+      <c r="M346" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="N345" t="n" s="0">
+      <c r="N346" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="O345" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P345" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="Q345" t="n" s="0">
+      <c r="O346" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P346" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="Q346" t="n" s="0">
         <v>2.330000</v>
       </c>
-      <c r="R345" t="n" s="0">
+      <c r="R346" t="n" s="0">
         <v>82.940000</v>
       </c>
-      <c r="S345" t="n" s="0">
+      <c r="S346" t="n" s="0">
         <v>16.000000</v>
       </c>
-      <c r="T345" t="n" s="0">
+      <c r="T346" t="n" s="0">
         <v>5.330000</v>
       </c>
-      <c r="U345" t="n" s="0">
+      <c r="U346" t="n" s="0">
         <v>9.560000</v>
       </c>
-      <c r="V345" t="n" s="0">
+      <c r="V346" t="n" s="0">
         <v>3.890000</v>
       </c>
-      <c r="W345" t="n" s="0">
+      <c r="W346" t="n" s="0">
         <v>9.220000</v>
       </c>
-      <c r="X345" t="n" s="0">
+      <c r="X346" t="n" s="0">
         <v>25.560000</v>
       </c>
-      <c r="Y345" t="n" s="0">
+      <c r="Y346" t="n" s="0">
         <v>48.440000</v>
       </c>
-      <c r="Z345" t="n" s="0">
+      <c r="Z346" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AA345" t="n" s="0">
+      <c r="AA346" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AB345" t="n" s="0">
+      <c r="AB346" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="AC345" t="n" s="0">
+      <c r="AC346" t="n" s="0">
         <v>0.000000</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="B346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="C346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="D346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="E346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="F346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="G346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="H346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="I346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="J346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="K346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="L346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="M346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="N346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="O346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Q346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="R346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="S346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="T346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="U346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="V346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="W346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="X346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Y346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Z346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AA346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AB346" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AC346" t="n" s="0">
-        <v/>
       </c>
     </row>
     <row r="347">
@@ -47553,6 +47640,95 @@
         <v/>
       </c>
       <c r="AC525" t="n" s="0">
+        <v/>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="B526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="C526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="D526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="E526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="F526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="G526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="H526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="I526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="J526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="K526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="L526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="M526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="N526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="O526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Q526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="R526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="S526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="T526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="U526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="V526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="W526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="X526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Y526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Z526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AA526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AB526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AC526" t="n" s="0">
         <v/>
       </c>
     </row>
